--- a/QuantLibXL/Data2/XLS/CHF/CHF_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_Market.xlsx
@@ -2451,21 +2451,7 @@
     <cellStyle name="Valuta (0)_AZIONI" xfId="8"/>
     <cellStyle name="Valuta_AZIONI" xfId="9"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2689,122 +2675,124 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
+    <main first="pldatasource.rhistoryrtdserver">
+      <tp t="s">
+        <v>Paused at 12:03:04</v>
+        <stp/>
+        <stp>{A3E48D85-893E-4924-BEAE-B6243ADE6359}_x0000_</stp>
+        <tr r="K18" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:04</v>
+        <stp/>
+        <stp>{E73B0907-36E6-4526-98B0-02B1D793FA84}_x0000_</stp>
+        <tr r="N23" s="6"/>
+      </tp>
+    </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 12:12:01</v>
+        <v>Paused at 12:03:02</v>
         <stp/>
-        <stp>{B544F444-37EE-4C0F-B724-1FC8B03615FE}</stp>
+        <stp>{6FBA5909-5A00-4E85-AD62-D305933B746C}</stp>
+        <tr r="L4" s="20"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{5CB22F4F-A2AB-47D2-B4C6-E01604CAB00B}</stp>
+        <tr r="O4" s="69"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{A059D0D4-0E11-4E8B-8DC1-DC5FC1769260}</stp>
+        <tr r="O4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:02</v>
+        <stp/>
+        <stp>{FD9BEE77-CB0B-4526-BBB1-FB65FDC9A96F}</stp>
+        <tr r="O4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:02</v>
+        <stp/>
+        <stp>{89BC433A-0439-4D08-AD49-4D00070B03C3}</stp>
+        <tr r="O4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{986AB90E-DEFA-455B-A8F8-58269868C5BE}</stp>
         <tr r="R4" s="18"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:06:32</v>
+        <v>Paused at 12:03:03</v>
         <stp/>
-        <stp>{6FB93DAE-6622-462D-867B-E84C39C72052}</stp>
-        <tr r="O4" s="11"/>
+        <stp>{F082D67B-8885-46CA-9994-BC91DA35B030}</stp>
+        <tr r="O4" s="68"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:59:35</v>
+        <v>Paused at 12:03:02</v>
         <stp/>
-        <stp>{A90E4C05-5A43-4EE3-91B4-93FA4D6F2E08}</stp>
-        <tr r="O4" s="69"/>
+        <stp>{CD0A5E5C-526B-4D0B-8F03-DAF51ECF0B92}</stp>
+        <tr r="O4" s="24"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:00:14</v>
+        <v>Paused at 12:03:03</v>
         <stp/>
-        <stp>{D45F2199-557C-4907-9B11-17A5DA8ACFC6}</stp>
+        <stp>{C5E8C918-D15E-4A3A-B4AE-CA6AB3C81D22}</stp>
+        <tr r="M4" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:02</v>
+        <stp/>
+        <stp>{2C3BF5D9-138A-483D-B98B-3A5D87290FF2}</stp>
+        <tr r="L5" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{547849C6-30DE-4CCB-BD6D-221E5DC09C65}</stp>
+        <tr r="O4" s="67"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{DC907B91-DEED-447A-859E-3804CC5D6CD2}</stp>
+        <tr r="O4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{5E16A16A-D9DC-40CB-9790-2A12EF22ABFF}</stp>
+        <tr r="O4" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 12:03:03</v>
+        <stp/>
+        <stp>{9D9A73E9-FDB1-4081-AD8C-D5410D73CF06}</stp>
         <tr r="K5" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:09:22</v>
+        <v>Paused at 12:03:03</v>
         <stp/>
-        <stp>{B843C46B-50F6-40FD-A699-1F85FE115E0A}</stp>
-        <tr r="M4" s="70"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:09:32</v>
-        <stp/>
-        <stp>{E15F605D-F874-4F6E-A557-62059037BB2D}</stp>
-        <tr r="O4" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:36:28</v>
-        <stp/>
-        <stp>{93938650-3D3B-4B54-A930-0571C7621BCF}</stp>
-        <tr r="L5" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:09:22</v>
-        <stp/>
-        <stp>{E00226EF-F5D2-4227-92AD-BF54C1168C8A}</stp>
-        <tr r="O4" s="24"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:13:22</v>
-        <stp/>
-        <stp>{11E8C573-A620-45D0-A3A0-73A8C34DC09D}</stp>
-        <tr r="O4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:06:32</v>
-        <stp/>
-        <stp>{CCB90545-12E1-4F1C-85C8-133DC339DAEA}</stp>
-        <tr r="O4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:13:23</v>
-        <stp/>
-        <stp>{E70E1BC5-D219-4859-ABB2-10987F502D9C}</stp>
+        <stp>{E1D9AC67-6A08-4EC5-9978-D70415397FA9}</stp>
         <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:13:22</v>
-        <stp/>
-        <stp>{850153E5-DC77-468D-834E-03338730E426}</stp>
-        <tr r="O4" s="67"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:09:22</v>
-        <stp/>
-        <stp>{5933938B-BEB7-4383-9D90-EFF9DE363BE0}</stp>
-        <tr r="O4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:13:23</v>
-        <stp/>
-        <stp>{211B47D9-6AA0-429F-B01C-57D34A92B2E7}</stp>
-        <tr r="O4" s="68"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:36:28</v>
-        <stp/>
-        <stp>{41767867-DD61-42CF-87C7-1AFB0EFC508A}</stp>
-        <tr r="L4" s="20"/>
       </tp>
     </main>
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:03</v>
         <stp/>
-        <stp>{A4E1DC7D-6803-4F04-B271-7BCD5E4FE365}_x0000_</stp>
-        <tr r="K18" s="6"/>
+        <stp>{F38BAF3E-4C37-4E5D-8D32-E8CF588AF959}_x0000_</stp>
+        <tr r="N18" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:04</v>
         <stp/>
-        <stp>{EF48A55A-477D-439B-B682-CBE882DA20F7}_x0000_</stp>
+        <stp>{65376105-16FD-4219-9BE9-B882E37F098F}_x0000_</stp>
         <tr r="K23" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:36:28</v>
-        <stp/>
-        <stp>{06C174CE-3366-451A-86D9-7F6FF443D55E}_x0000_</stp>
-        <tr r="N23" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:36:28</v>
-        <stp/>
-        <stp>{B7D8A52A-A6DA-4E23-AAA3-8F5A8A7634F5}_x0000_</stp>
-        <tr r="N18" s="6"/>
       </tp>
     </main>
   </volType>
@@ -3123,7 +3111,7 @@
     <row r="1" spans="2:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="188" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Apr 22 2015 09:39:09</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3176,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="66">
-        <v>42129.441469907404</v>
+        <v>42130.460127314815</v>
       </c>
       <c r="E4" s="58"/>
       <c r="G4" s="99"/>
@@ -3203,7 +3191,7 @@
       </c>
       <c r="D5" s="67">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42129</v>
+        <v>42130</v>
       </c>
       <c r="E5" s="62"/>
       <c r="G5" s="99"/>
@@ -3249,7 +3237,7 @@
       </c>
       <c r="D7" s="46">
         <f>_xll.ohTrigger(Deposits!T2,FRA!Z2,Futures3M!AD2,FuturesHWConvAdj!U2,Swap3M!Z2,SwapIMM!Z2,BasisSwap1M6M!AB2,BasisSwap3M6M!AB2,BasisSwap3M12M!AB2,OIS!Z2)</f>
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="E7" s="47"/>
       <c r="G7" s="90"/>
@@ -3276,7 +3264,7 @@
       </c>
       <c r="D8" s="49">
         <f>_xll.ohTrigger(Libor!O6:O13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="47"/>
       <c r="G8" s="90"/>
@@ -3794,12 +3782,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3927,7 +3915,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="103">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="161"/>
     </row>
@@ -3983,7 +3971,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:13:22</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -4143,10 +4131,10 @@
         <v>CHFAB6L1Y=ICAP</v>
       </c>
       <c r="P6" s="80">
-        <v>-0.755</v>
+        <v>-0.74750000000000005</v>
       </c>
       <c r="Q6" s="80">
-        <v>-0.69500000000000006</v>
+        <v>-0.6875</v>
       </c>
       <c r="R6" s="80">
         <v>0</v>
@@ -4156,11 +4144,11 @@
       </c>
       <c r="T6" s="80">
         <f t="shared" ref="T6:T42" si="3">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>-0.72500000000000009</v>
+        <v>-0.71750000000000003</v>
       </c>
       <c r="U6" s="80">
         <f t="shared" ref="U6:U42" si="4">Q6-P6</f>
-        <v>5.9999999999999942E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="V6" s="185"/>
       <c r="W6" s="187">
@@ -4168,11 +4156,11 @@
       </c>
       <c r="X6" s="185"/>
       <c r="Y6" s="80">
-        <v>-0.72500000000000009</v>
+        <v>-0.71750000000000003</v>
       </c>
       <c r="Z6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999999849E-5</v>
       </c>
       <c r="AA6" s="73"/>
       <c r="AC6" s="390"/>
@@ -4463,10 +4451,10 @@
         <v>CHFAB6L2Y=ICAP</v>
       </c>
       <c r="P10" s="80">
-        <v>-0.6875</v>
+        <v>-0.67</v>
       </c>
       <c r="Q10" s="80">
-        <v>-0.60750000000000004</v>
+        <v>-0.59000000000000008</v>
       </c>
       <c r="R10" s="80">
         <v>0</v>
@@ -4476,7 +4464,7 @@
       </c>
       <c r="T10" s="80">
         <f t="shared" si="3"/>
-        <v>-0.64749999999999996</v>
+        <v>-0.63000000000000012</v>
       </c>
       <c r="U10" s="80">
         <f t="shared" si="4"/>
@@ -4488,11 +4476,11 @@
       </c>
       <c r="X10" s="185"/>
       <c r="Y10" s="80">
-        <v>-0.64749999999999996</v>
+        <v>-0.63000000000000012</v>
       </c>
       <c r="Z10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA10" s="73"/>
       <c r="AC10" s="390"/>
@@ -4543,10 +4531,10 @@
         <v>CHFAB6L3Y=ICAP</v>
       </c>
       <c r="P11" s="80">
-        <v>-0.5675</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="Q11" s="80">
-        <v>-0.48750000000000004</v>
+        <v>-0.47000000000000003</v>
       </c>
       <c r="R11" s="80">
         <v>0</v>
@@ -4556,11 +4544,11 @@
       </c>
       <c r="T11" s="80">
         <f t="shared" si="3"/>
-        <v>-0.52750000000000008</v>
+        <v>-0.51</v>
       </c>
       <c r="U11" s="80">
         <f t="shared" si="4"/>
-        <v>7.999999999999996E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V11" s="185"/>
       <c r="W11" s="187">
@@ -4568,11 +4556,11 @@
       </c>
       <c r="X11" s="185"/>
       <c r="Y11" s="80">
-        <v>-0.52750000000000008</v>
+        <v>-0.51</v>
       </c>
       <c r="Z11" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA11" s="73"/>
       <c r="AC11" s="390"/>
@@ -4623,10 +4611,10 @@
         <v>CHFAB6L4Y=ICAP</v>
       </c>
       <c r="P12" s="80">
-        <v>-0.42750000000000005</v>
+        <v>-0.40250000000000002</v>
       </c>
       <c r="Q12" s="80">
-        <v>-0.34750000000000003</v>
+        <v>-0.32250000000000001</v>
       </c>
       <c r="R12" s="80">
         <v>0</v>
@@ -4636,7 +4624,7 @@
       </c>
       <c r="T12" s="80">
         <f t="shared" si="3"/>
-        <v>-0.38750000000000007</v>
+        <v>-0.36250000000000004</v>
       </c>
       <c r="U12" s="80">
         <f t="shared" si="4"/>
@@ -4648,11 +4636,11 @@
       </c>
       <c r="X12" s="185"/>
       <c r="Y12" s="80">
-        <v>-0.38750000000000007</v>
+        <v>-0.36250000000000004</v>
       </c>
       <c r="Z12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999924E-4</v>
       </c>
       <c r="AA12" s="73"/>
       <c r="AC12" s="390"/>
@@ -4703,10 +4691,10 @@
         <v>CHFAB6L5Y=ICAP</v>
       </c>
       <c r="P13" s="80">
-        <v>-0.28250000000000003</v>
+        <v>-0.2525</v>
       </c>
       <c r="Q13" s="80">
-        <v>-0.20250000000000001</v>
+        <v>-0.17250000000000001</v>
       </c>
       <c r="R13" s="80">
         <v>0</v>
@@ -4716,11 +4704,11 @@
       </c>
       <c r="T13" s="80">
         <f t="shared" si="3"/>
-        <v>-0.24250000000000002</v>
+        <v>-0.21250000000000002</v>
       </c>
       <c r="U13" s="80">
         <f t="shared" si="4"/>
-        <v>8.0000000000000016E-2</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="V13" s="185"/>
       <c r="W13" s="187">
@@ -4728,11 +4716,11 @@
       </c>
       <c r="X13" s="185"/>
       <c r="Y13" s="80">
-        <v>-0.24250000000000002</v>
+        <v>-0.21250000000000002</v>
       </c>
       <c r="Z13" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AA13" s="73"/>
       <c r="AC13" s="390"/>
@@ -4783,10 +4771,10 @@
         <v>CHFAB6L6Y=ICAP</v>
       </c>
       <c r="P14" s="80">
-        <v>-0.14750000000000002</v>
+        <v>-0.11</v>
       </c>
       <c r="Q14" s="80">
-        <v>-6.7500000000000004E-2</v>
+        <v>-3.0000000000000002E-2</v>
       </c>
       <c r="R14" s="80">
         <v>0</v>
@@ -4796,11 +4784,11 @@
       </c>
       <c r="T14" s="80">
         <f t="shared" si="3"/>
-        <v>-0.10750000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="U14" s="80">
         <f t="shared" si="4"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V14" s="185"/>
       <c r="W14" s="187">
@@ -4808,11 +4796,11 @@
       </c>
       <c r="X14" s="185"/>
       <c r="Y14" s="80">
-        <v>-0.10750000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Z14" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>1.7499999999999981E-4</v>
       </c>
       <c r="AA14" s="73"/>
       <c r="AC14" s="390"/>
@@ -4863,10 +4851,10 @@
         <v>CHFAB6L7Y=ICAP</v>
       </c>
       <c r="P15" s="80">
-        <v>-2.75E-2</v>
+        <v>1.5000000000000001E-2</v>
       </c>
       <c r="Q15" s="80">
-        <v>5.2500000000000005E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R15" s="80">
         <v>0</v>
@@ -4876,7 +4864,7 @@
       </c>
       <c r="T15" s="80">
         <f t="shared" si="3"/>
-        <v>1.2500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U15" s="80">
         <f t="shared" si="4"/>
@@ -4888,11 +4876,11 @@
       </c>
       <c r="X15" s="185"/>
       <c r="Y15" s="80">
-        <v>1.2500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z15" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>2.5000000000000025E-5</v>
+        <v>2.0000000000000009E-4</v>
       </c>
       <c r="AA15" s="73"/>
       <c r="AC15" s="390"/>
@@ -4943,10 +4931,10 @@
         <v>CHFAB6L8Y=ICAP</v>
       </c>
       <c r="P16" s="80">
-        <v>7.4999999999999997E-2</v>
+        <v>0.12250000000000001</v>
       </c>
       <c r="Q16" s="80">
-        <v>0.155</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="R16" s="80">
         <v>0</v>
@@ -4956,7 +4944,7 @@
       </c>
       <c r="T16" s="80">
         <f t="shared" si="3"/>
-        <v>0.11499999999999999</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="U16" s="80">
         <f t="shared" si="4"/>
@@ -4968,11 +4956,11 @@
       </c>
       <c r="X16" s="185"/>
       <c r="Y16" s="80">
-        <v>0.11499999999999999</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="Z16" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>2.2499999999999994E-4</v>
       </c>
       <c r="AA16" s="73"/>
       <c r="AC16" s="390"/>
@@ -5023,10 +5011,10 @@
         <v>CHFAB6L9Y=ICAP</v>
       </c>
       <c r="P17" s="80">
-        <v>0.16</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="Q17" s="80">
-        <v>0.24000000000000002</v>
+        <v>0.29250000000000004</v>
       </c>
       <c r="R17" s="80">
         <v>0</v>
@@ -5036,7 +5024,7 @@
       </c>
       <c r="T17" s="80">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.25250000000000006</v>
       </c>
       <c r="U17" s="80">
         <f t="shared" si="4"/>
@@ -5048,11 +5036,11 @@
       </c>
       <c r="X17" s="185"/>
       <c r="Y17" s="80">
-        <v>0.2</v>
+        <v>0.25250000000000006</v>
       </c>
       <c r="Z17" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>2.5000000000000066E-4</v>
       </c>
       <c r="AA17" s="73"/>
       <c r="AC17" s="390"/>
@@ -5103,10 +5091,10 @@
         <v>CHFAB6L10Y=ICAP</v>
       </c>
       <c r="P18" s="80">
-        <v>0.23</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="Q18" s="80">
-        <v>0.31</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="R18" s="80">
         <v>0</v>
@@ -5116,11 +5104,11 @@
       </c>
       <c r="T18" s="80">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="U18" s="80">
         <f t="shared" si="4"/>
-        <v>7.9999999999999988E-2</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="V18" s="185"/>
       <c r="W18" s="187">
@@ -5128,11 +5116,11 @@
       </c>
       <c r="X18" s="185"/>
       <c r="Y18" s="80">
-        <v>0.27</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="Z18" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>2.4999999999999979E-4</v>
       </c>
       <c r="AA18" s="73"/>
       <c r="AC18" s="390"/>
@@ -5183,10 +5171,10 @@
         <v>CHFAB6L11Y=ICAP</v>
       </c>
       <c r="P19" s="80">
-        <v>0.27750000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="Q19" s="80">
-        <v>0.3775</v>
+        <v>0.435</v>
       </c>
       <c r="R19" s="80">
         <v>0</v>
@@ -5196,7 +5184,7 @@
       </c>
       <c r="T19" s="80">
         <f t="shared" si="3"/>
-        <v>0.32750000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="U19" s="80">
         <f t="shared" si="4"/>
@@ -5208,11 +5196,11 @@
       </c>
       <c r="X19" s="185"/>
       <c r="Y19" s="80">
-        <v>0.32750000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="Z19" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>0</v>
+        <v>2.7499999999999964E-4</v>
       </c>
       <c r="AA19" s="73"/>
       <c r="AC19" s="390"/>
@@ -5263,10 +5251,10 @@
         <v>CHFAB6L12Y=ICAP</v>
       </c>
       <c r="P20" s="80">
-        <v>0.32750000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="Q20" s="80">
-        <v>0.42750000000000005</v>
+        <v>0.48500000000000004</v>
       </c>
       <c r="R20" s="80">
         <v>0</v>
@@ -5276,7 +5264,7 @@
       </c>
       <c r="T20" s="80">
         <f t="shared" si="3"/>
-        <v>0.37750000000000006</v>
+        <v>0.43500000000000005</v>
       </c>
       <c r="U20" s="80">
         <f t="shared" si="4"/>
@@ -5288,11 +5276,11 @@
       </c>
       <c r="X20" s="185"/>
       <c r="Y20" s="80">
-        <v>0.37750000000000006</v>
+        <v>0.43500000000000005</v>
       </c>
       <c r="Z20" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA20" s="73"/>
       <c r="AC20" s="390"/>
@@ -5503,10 +5491,10 @@
         <v>CHFAB6L15Y=ICAP</v>
       </c>
       <c r="P23" s="80">
-        <v>0.44750000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="Q23" s="80">
-        <v>0.54749999999999999</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="R23" s="80">
         <v>0</v>
@@ -5516,7 +5504,7 @@
       </c>
       <c r="T23" s="80">
         <f t="shared" si="3"/>
-        <v>0.4975</v>
+        <v>0.55499999999999994</v>
       </c>
       <c r="U23" s="80">
         <f t="shared" si="4"/>
@@ -5528,11 +5516,11 @@
       </c>
       <c r="X23" s="185"/>
       <c r="Y23" s="80">
-        <v>0.4975</v>
+        <v>0.55499999999999994</v>
       </c>
       <c r="Z23" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999999935E-4</v>
       </c>
       <c r="AA23" s="73"/>
       <c r="AC23" s="390"/>
@@ -5903,10 +5891,10 @@
         <v>CHFAB6L20Y=ICAP</v>
       </c>
       <c r="P28" s="80">
-        <v>0.56500000000000006</v>
+        <v>0.62750000000000006</v>
       </c>
       <c r="Q28" s="80">
-        <v>0.66500000000000004</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="R28" s="80">
         <v>0</v>
@@ -5916,7 +5904,7 @@
       </c>
       <c r="T28" s="80">
         <f t="shared" si="3"/>
-        <v>0.61499999999999999</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="U28" s="80">
         <f t="shared" si="4"/>
@@ -5928,11 +5916,11 @@
       </c>
       <c r="X28" s="185"/>
       <c r="Y28" s="80">
-        <v>0.61499999999999999</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="Z28" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>2.749999999999992E-4</v>
       </c>
       <c r="AA28" s="73"/>
       <c r="AC28" s="390"/>
@@ -6303,10 +6291,10 @@
         <v>CHFAB6L25Y=ICAP</v>
       </c>
       <c r="P33" s="80">
-        <v>0.63750000000000007</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="Q33" s="80">
-        <v>0.73750000000000004</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="R33" s="80">
         <v>0</v>
@@ -6316,7 +6304,7 @@
       </c>
       <c r="T33" s="80">
         <f t="shared" si="3"/>
-        <v>0.6875</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="U33" s="80">
         <f t="shared" si="4"/>
@@ -6328,11 +6316,11 @@
       </c>
       <c r="X33" s="185"/>
       <c r="Y33" s="80">
-        <v>0.6875</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="Z33" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA33" s="73"/>
       <c r="AC33" s="390"/>
@@ -6703,10 +6691,10 @@
         <v>CHFAB6L30Y=ICAP</v>
       </c>
       <c r="P38" s="80">
-        <v>0.67249999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q38" s="80">
-        <v>0.77250000000000008</v>
+        <v>0.83500000000000008</v>
       </c>
       <c r="R38" s="80">
         <v>0</v>
@@ -6716,7 +6704,7 @@
       </c>
       <c r="T38" s="80">
         <f t="shared" si="3"/>
-        <v>0.72250000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="U38" s="80">
         <f t="shared" si="4"/>
@@ -6728,11 +6716,11 @@
       </c>
       <c r="X38" s="185"/>
       <c r="Y38" s="80">
-        <v>0.72250000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="Z38" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>2.5000000000000109E-4</v>
       </c>
       <c r="AA38" s="73"/>
       <c r="AC38" s="390"/>
@@ -6783,10 +6771,10 @@
         <v>CHFAB6L35Y=ICAP</v>
       </c>
       <c r="P39" s="80">
-        <v>0.6825</v>
+        <v>0.745</v>
       </c>
       <c r="Q39" s="80">
-        <v>0.78250000000000008</v>
+        <v>0.84500000000000008</v>
       </c>
       <c r="R39" s="80">
         <v>0</v>
@@ -6796,7 +6784,7 @@
       </c>
       <c r="T39" s="80">
         <f t="shared" si="3"/>
-        <v>0.73250000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="U39" s="80">
         <f t="shared" si="4"/>
@@ -6808,11 +6796,11 @@
       </c>
       <c r="X39" s="185"/>
       <c r="Y39" s="80">
-        <v>0.73250000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="Z39" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F39,Y39/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA39" s="73"/>
       <c r="AC39" s="390"/>
@@ -6863,10 +6851,10 @@
         <v>CHFAB6L40Y=ICAP</v>
       </c>
       <c r="P40" s="80">
-        <v>0.67749999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="Q40" s="80">
-        <v>0.77750000000000008</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="R40" s="80">
         <v>0</v>
@@ -6876,7 +6864,7 @@
       </c>
       <c r="T40" s="80">
         <f t="shared" si="3"/>
-        <v>0.72750000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="U40" s="80">
         <f t="shared" si="4"/>
@@ -6888,11 +6876,11 @@
       </c>
       <c r="X40" s="185"/>
       <c r="Y40" s="80">
-        <v>0.72750000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="Z40" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999999935E-4</v>
       </c>
       <c r="AA40" s="73"/>
       <c r="AC40" s="390"/>
@@ -6943,10 +6931,10 @@
         <v>CHFAB6L50Y=ICAP</v>
       </c>
       <c r="P41" s="80">
-        <v>0.64250000000000007</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="Q41" s="80">
-        <v>0.74250000000000005</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="R41" s="80">
         <v>0</v>
@@ -6956,7 +6944,7 @@
       </c>
       <c r="T41" s="80">
         <f t="shared" si="3"/>
-        <v>0.69250000000000012</v>
+        <v>0.75500000000000012</v>
       </c>
       <c r="U41" s="80">
         <f t="shared" si="4"/>
@@ -6968,11 +6956,11 @@
       </c>
       <c r="X41" s="185"/>
       <c r="Y41" s="80">
-        <v>0.69250000000000012</v>
+        <v>0.75500000000000012</v>
       </c>
       <c r="Z41" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F41,Y41/100,Trigger)</f>
-        <v>2.5000000000001583E-5</v>
+        <v>2.5000000000000109E-4</v>
       </c>
       <c r="AA41" s="73"/>
       <c r="AC41" s="390"/>
@@ -7088,10 +7076,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z42">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7199,7 +7187,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="103">
         <f>_xll.ohTrigger(Z5:Z11)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="161"/>
     </row>
@@ -7255,7 +7243,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O11,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:09:22</v>
+        <v>Paused at 12:03:02</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -7434,7 +7422,7 @@
       </c>
       <c r="Z6" s="245">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>1.0000000000000113E-4</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="73"/>
       <c r="AC6" s="204"/>
@@ -7479,10 +7467,10 @@
         <v>CHF3S12=ICAP</v>
       </c>
       <c r="P7" s="180">
-        <v>-0.85</v>
+        <v>-0.83000000000000007</v>
       </c>
       <c r="Q7" s="180">
-        <v>-0.82000000000000006</v>
+        <v>-0.8</v>
       </c>
       <c r="R7" s="180">
         <v>0</v>
@@ -7492,11 +7480,11 @@
       </c>
       <c r="T7" s="180">
         <f t="shared" si="4"/>
-        <v>-0.83499999999999996</v>
+        <v>-0.81500000000000006</v>
       </c>
       <c r="U7" s="180">
         <f t="shared" si="5"/>
-        <v>2.9999999999999916E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="V7" s="183"/>
       <c r="W7" s="180">
@@ -7504,11 +7492,11 @@
       </c>
       <c r="X7" s="183"/>
       <c r="Y7" s="180">
-        <v>-0.83499999999999996</v>
+        <v>-0.81500000000000006</v>
       </c>
       <c r="Z7" s="245">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA7" s="73"/>
       <c r="AC7" s="204"/>
@@ -7553,10 +7541,10 @@
         <v>CHF4S12=ICAP</v>
       </c>
       <c r="P8" s="180">
-        <v>-0.8</v>
+        <v>-0.78</v>
       </c>
       <c r="Q8" s="180">
-        <v>-0.77</v>
+        <v>-0.75</v>
       </c>
       <c r="R8" s="180">
         <v>0</v>
@@ -7566,7 +7554,7 @@
       </c>
       <c r="T8" s="180">
         <f t="shared" si="4"/>
-        <v>-0.78500000000000003</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="U8" s="180">
         <f t="shared" si="5"/>
@@ -7578,11 +7566,11 @@
       </c>
       <c r="X8" s="183"/>
       <c r="Y8" s="180">
-        <v>-0.78500000000000003</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="Z8" s="245">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA8" s="73"/>
       <c r="AC8" s="204"/>
@@ -7841,10 +7829,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z11">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7958,7 +7946,7 @@
       <c r="AA2" s="52"/>
       <c r="AB2" s="103">
         <f>_xll.ohTrigger(AB5:AB42)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="161"/>
     </row>
@@ -7984,7 +7972,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(U5:U42,V5:V42),_xll.ohFilter(T5:T42,V5:V42))</f>
-        <v>obj_003d3#0003</v>
+        <v>obj_0042b#0000</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -8019,7 +8007,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 11:59:35</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -8228,7 +8216,7 @@
       </c>
       <c r="AB6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>-2.5000000000000066E-5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="73"/>
       <c r="AD6" s="188"/>
@@ -8313,7 +8301,7 @@
       </c>
       <c r="AB7" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>-1.7179985200601526E-5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="73"/>
       <c r="AD7" s="188"/>
@@ -8399,7 +8387,7 @@
       </c>
       <c r="AB8" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8/10000,Trigger)</f>
-        <v>-9.9879763209625907E-6</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="73"/>
     </row>
@@ -8484,7 +8472,7 @@
       </c>
       <c r="AB9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>-4.0519792808423223E-6</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="73"/>
     </row>
@@ -9744,7 +9732,7 @@
       </c>
       <c r="AB24" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>-4.7490960816687355E-13</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="73"/>
     </row>
@@ -9828,7 +9816,7 @@
       </c>
       <c r="AB25" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>-1.424728770290512E-12</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="73"/>
     </row>
@@ -9912,7 +9900,7 @@
       </c>
       <c r="AB26" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>-2.1370931283307137E-12</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="73"/>
     </row>
@@ -9996,7 +9984,7 @@
       </c>
       <c r="AB27" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>-1.8996383784573856E-12</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="73"/>
     </row>
@@ -10164,7 +10152,7 @@
       </c>
       <c r="AB29" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>1.899638324247277E-12</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="73"/>
     </row>
@@ -10248,7 +10236,7 @@
       </c>
       <c r="AB30" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>2.1370931825408224E-12</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="73"/>
     </row>
@@ -10332,7 +10320,7 @@
       </c>
       <c r="AB31" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>1.424728770290512E-12</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="73"/>
     </row>
@@ -10416,7 +10404,7 @@
       </c>
       <c r="AB32" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>4.7490955395676493E-13</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="73"/>
     </row>
@@ -11296,10 +11284,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB5:AB42">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11413,7 +11401,7 @@
       <c r="AA2" s="52"/>
       <c r="AB2" s="103">
         <f>_xll.ohTrigger(AB5:AB42)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="161"/>
     </row>
@@ -11439,7 +11427,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(U5:U42,V5:V42),_xll.ohFilter(T5:T42,V5:V42))</f>
-        <v>obj_003d2#0004</v>
+        <v>obj_0042a#0000</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -11474,7 +11462,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:06:32</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -11683,7 +11671,7 @@
       </c>
       <c r="AB6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>-2.5000000000000066E-5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="73"/>
       <c r="AD6" s="188"/>
@@ -11756,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="251">
-        <v>16.149104903716221</v>
+        <v>16.050997765752317</v>
       </c>
       <c r="X7" s="185"/>
       <c r="Y7" s="257">
@@ -11764,11 +11752,11 @@
       </c>
       <c r="Z7" s="185"/>
       <c r="AA7" s="251">
-        <v>16.149104903716221</v>
+        <v>16.050997765752317</v>
       </c>
       <c r="AB7" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>-1.7179985200601634E-5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="73"/>
       <c r="AD7" s="188"/>
@@ -11842,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="251">
-        <v>16.038567845945956</v>
+        <v>15.85659642520371</v>
       </c>
       <c r="X8" s="185"/>
       <c r="Y8" s="257">
@@ -11850,11 +11838,11 @@
       </c>
       <c r="Z8" s="185"/>
       <c r="AA8" s="251">
-        <v>16.038567845945956</v>
+        <v>15.85659642520371</v>
       </c>
       <c r="AB8" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8/10000,Trigger)</f>
-        <v>-9.9879763209625907E-6</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="73"/>
     </row>
@@ -11927,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="251">
-        <v>15.90874686520271</v>
+        <v>15.671396872053245</v>
       </c>
       <c r="X9" s="185"/>
       <c r="Y9" s="257">
@@ -11935,11 +11923,11 @@
       </c>
       <c r="Z9" s="185"/>
       <c r="AA9" s="251">
-        <v>15.90874686520271</v>
+        <v>15.671396872053245</v>
       </c>
       <c r="AB9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>-4.0519792808421055E-6</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="73"/>
     </row>
@@ -11988,10 +11976,10 @@
         <v>CHF1L6L2Y=ICAP</v>
       </c>
       <c r="P10" s="251">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="Q10" s="251">
-        <v>17.75</v>
+        <v>17.5</v>
       </c>
       <c r="R10" s="265">
         <v>0</v>
@@ -12001,7 +11989,7 @@
       </c>
       <c r="T10" s="251">
         <f t="shared" si="6"/>
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="U10" s="262">
         <v>2</v>
@@ -12011,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="251">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="X10" s="185"/>
       <c r="Y10" s="257">
@@ -12019,7 +12007,7 @@
       </c>
       <c r="Z10" s="185"/>
       <c r="AA10" s="251">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
@@ -12935,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="251">
-        <v>11.793035744782076</v>
+        <v>11.793034704503924</v>
       </c>
       <c r="X21" s="185"/>
       <c r="Y21" s="257">
@@ -12943,11 +12931,11 @@
       </c>
       <c r="Z21" s="185"/>
       <c r="AA21" s="251">
-        <v>11.793035744782076</v>
+        <v>11.793034704503924</v>
       </c>
       <c r="AB21" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21/10000,Trigger)</f>
-        <v>1.733796916800201E-11</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="73"/>
     </row>
@@ -13019,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="251">
-        <v>11.384715666122021</v>
+        <v>11.384714925489208</v>
       </c>
       <c r="X22" s="185"/>
       <c r="Y22" s="257">
@@ -13027,11 +13015,11 @@
       </c>
       <c r="Z22" s="185"/>
       <c r="AA22" s="251">
-        <v>11.384715666122021</v>
+        <v>11.384714925489208</v>
       </c>
       <c r="AB22" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22/10000,Trigger)</f>
-        <v>1.2343880258225415E-11</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="73"/>
     </row>
@@ -13187,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="251">
-        <v>10.619416213462046</v>
+        <v>10.6194166653046</v>
       </c>
       <c r="X24" s="185"/>
       <c r="Y24" s="257">
@@ -13195,11 +13183,11 @@
       </c>
       <c r="Z24" s="185"/>
       <c r="AA24" s="251">
-        <v>10.619416213462046</v>
+        <v>10.6194166653046</v>
       </c>
       <c r="AB24" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>-7.5307091292053929E-12</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="73"/>
     </row>
@@ -13271,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="251">
-        <v>10.24576069781768</v>
+        <v>10.24576125956788</v>
       </c>
       <c r="X25" s="185"/>
       <c r="Y25" s="257">
@@ -13279,11 +13267,11 @@
       </c>
       <c r="Z25" s="185"/>
       <c r="AA25" s="251">
-        <v>10.24576069781768</v>
+        <v>10.24576125956788</v>
       </c>
       <c r="AB25" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>-9.3625033940891722E-12</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="73"/>
     </row>
@@ -13355,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="251">
-        <v>9.8873970754422889</v>
+        <v>9.8873975211788618</v>
       </c>
       <c r="X26" s="185"/>
       <c r="Y26" s="257">
@@ -13363,11 +13351,11 @@
       </c>
       <c r="Z26" s="185"/>
       <c r="AA26" s="251">
-        <v>9.8873970754422889</v>
+        <v>9.8873975211788618</v>
       </c>
       <c r="AB26" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>-7.4289428775298205E-12</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="73"/>
     </row>
@@ -13439,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="251">
-        <v>9.5526889687112657</v>
+        <v>9.5526891885265623</v>
       </c>
       <c r="X27" s="185"/>
       <c r="Y27" s="257">
@@ -13447,11 +13435,11 @@
       </c>
       <c r="Z27" s="185"/>
       <c r="AA27" s="251">
-        <v>9.5526889687112657</v>
+        <v>9.5526891885265623</v>
       </c>
       <c r="AB27" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>-3.6635884213473413E-12</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="73"/>
     </row>
@@ -13607,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="251">
-        <v>8.9856172396048528</v>
+        <v>8.9856171174852442</v>
       </c>
       <c r="X29" s="185"/>
       <c r="Y29" s="257">
@@ -13615,11 +13603,11 @@
       </c>
       <c r="Z29" s="185"/>
       <c r="AA29" s="251">
-        <v>8.9856172396048528</v>
+        <v>8.9856171174852442</v>
       </c>
       <c r="AB29" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>2.0353269850753586E-12</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="73"/>
     </row>
@@ -13691,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="251">
-        <v>8.7575215495060661</v>
+        <v>8.7575213968565535</v>
       </c>
       <c r="X30" s="185"/>
       <c r="Y30" s="257">
@@ -13699,11 +13687,11 @@
       </c>
       <c r="Z30" s="185"/>
       <c r="AA30" s="251">
-        <v>8.7575215495060661</v>
+        <v>8.7575213968565535</v>
       </c>
       <c r="AB30" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>2.5441586771340896E-12</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="73"/>
     </row>
@@ -13775,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="251">
-        <v>8.5616172396048515</v>
+        <v>8.5616171174852429</v>
       </c>
       <c r="X31" s="185"/>
       <c r="Y31" s="257">
@@ -13783,11 +13771,11 @@
       </c>
       <c r="Z31" s="185"/>
       <c r="AA31" s="251">
-        <v>8.5616172396048515</v>
+        <v>8.5616171174852429</v>
       </c>
       <c r="AB31" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>2.0353267682349241E-12</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="73"/>
     </row>
@@ -13859,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="251">
-        <v>8.3938086198024262</v>
+        <v>8.3938085587426219</v>
       </c>
       <c r="X32" s="185"/>
       <c r="Y32" s="257">
@@ -13867,11 +13855,11 @@
       </c>
       <c r="Z32" s="185"/>
       <c r="AA32" s="251">
-        <v>8.3938086198024262</v>
+        <v>8.3938085587426219</v>
       </c>
       <c r="AB32" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>1.0176634925376793E-12</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="73"/>
     </row>
@@ -14027,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="251">
-        <v>8.1261148281185438</v>
+        <v>8.1261148647544275</v>
       </c>
       <c r="X34" s="185"/>
       <c r="Y34" s="257">
@@ -14035,11 +14023,11 @@
       </c>
       <c r="Z34" s="185"/>
       <c r="AA34" s="251">
-        <v>8.1261148281185438</v>
+        <v>8.1261148647544275</v>
       </c>
       <c r="AB34" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F34,AA34/10000,Trigger)</f>
-        <v>-6.1059816057473792E-13</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="73"/>
     </row>
@@ -14111,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="251">
-        <v>8.0181531041580598</v>
+        <v>8.0181531530059029</v>
       </c>
       <c r="X35" s="185"/>
       <c r="Y35" s="257">
@@ -14119,11 +14107,11 @@
       </c>
       <c r="Z35" s="185"/>
       <c r="AA35" s="251">
-        <v>8.0181531041580598</v>
+        <v>8.0181531530059029</v>
       </c>
       <c r="AB35" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F35,AA35/10000,Trigger)</f>
-        <v>-8.1413055550566549E-13</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="73"/>
     </row>
@@ -14195,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="251">
-        <v>7.9221339661383015</v>
+        <v>7.9221340088801648</v>
       </c>
       <c r="X36" s="185"/>
       <c r="Y36" s="257">
@@ -14203,11 +14191,11 @@
       </c>
       <c r="Z36" s="185"/>
       <c r="AA36" s="251">
-        <v>7.9221339661383015</v>
+        <v>7.9221340088801648</v>
       </c>
       <c r="AB36" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F36,AA36/10000,Trigger)</f>
-        <v>-7.1236441225031033E-13</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="73"/>
     </row>
@@ -14279,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="251">
-        <v>7.8340765520790292</v>
+        <v>7.8340765765029516</v>
       </c>
       <c r="X37" s="185"/>
       <c r="Y37" s="257">
@@ -14287,11 +14275,11 @@
       </c>
       <c r="Z37" s="185"/>
       <c r="AA37" s="251">
-        <v>7.8340765520790292</v>
+        <v>7.8340765765029516</v>
       </c>
       <c r="AB37" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F37,AA37/10000,Trigger)</f>
-        <v>-4.0706544038315862E-13</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="73"/>
     </row>
@@ -14751,10 +14739,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB5:AB42">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14868,7 +14856,7 @@
       <c r="AA2" s="52"/>
       <c r="AB2" s="268">
         <f>_xll.ohTrigger(AB5:AB42)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="161"/>
     </row>
@@ -14894,7 +14882,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(U5:U42,V5:V42),_xll.ohFilter(T5:T42,V5:V42))</f>
-        <v>obj_003d1#0003</v>
+        <v>obj_00429#0000</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -14929,7 +14917,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:06:32</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -15138,7 +15126,7 @@
       </c>
       <c r="AB6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="73"/>
       <c r="AD6" s="188"/>
@@ -15211,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="251">
-        <v>10.25</v>
+        <v>10.166360233621964</v>
       </c>
       <c r="X7" s="185"/>
       <c r="Y7" s="257">
@@ -15219,11 +15207,11 @@
       </c>
       <c r="Z7" s="185"/>
       <c r="AA7" s="251">
-        <v>10.25</v>
+        <v>10.166360233621964</v>
       </c>
       <c r="AB7" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>-1.9170529600652606E-5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="73"/>
       <c r="AD7" s="188"/>
@@ -15297,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="251">
-        <v>10.25</v>
+        <v>10.085375763219524</v>
       </c>
       <c r="X8" s="185"/>
       <c r="Y8" s="257">
@@ -15305,11 +15293,11 @@
       </c>
       <c r="Z8" s="185"/>
       <c r="AA8" s="251">
-        <v>10.25</v>
+        <v>10.085375763219524</v>
       </c>
       <c r="AB8" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8/10000,Trigger)</f>
-        <v>-1.3172847361044059E-5</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="73"/>
     </row>
@@ -15382,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="251">
-        <v>10.25</v>
+        <v>10.024203411207321</v>
       </c>
       <c r="X9" s="185"/>
       <c r="Y9" s="257">
@@ -15390,11 +15378,11 @@
       </c>
       <c r="Z9" s="185"/>
       <c r="AA9" s="251">
-        <v>10.25</v>
+        <v>10.024203411207321</v>
       </c>
       <c r="AB9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>-6.8387414409135528E-6</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="73"/>
     </row>
@@ -15443,10 +15431,10 @@
         <v>CHF3L6L2Y=ICAP</v>
       </c>
       <c r="P10" s="251">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="251">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="R10" s="265">
         <v>0</v>
@@ -15456,7 +15444,7 @@
       </c>
       <c r="T10" s="251">
         <f t="shared" si="6"/>
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U10" s="262">
         <v>2</v>
@@ -15466,7 +15454,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="251">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X10" s="185"/>
       <c r="Y10" s="257">
@@ -15474,7 +15462,7 @@
       </c>
       <c r="Z10" s="185"/>
       <c r="AA10" s="251">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
@@ -16390,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="251">
-        <v>8.8885877268188551</v>
+        <v>8.8885866865407035</v>
       </c>
       <c r="X21" s="185"/>
       <c r="Y21" s="257">
@@ -16398,11 +16386,11 @@
       </c>
       <c r="Z21" s="185"/>
       <c r="AA21" s="251">
-        <v>8.8885877268188551</v>
+        <v>8.8885866865407035</v>
       </c>
       <c r="AB21" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21/10000,Trigger)</f>
-        <v>1.7337969384842444E-11</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="73"/>
     </row>
@@ -16474,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="251">
-        <v>8.4481793055069012</v>
+        <v>8.4481785648740875</v>
       </c>
       <c r="X22" s="185"/>
       <c r="Y22" s="257">
@@ -16482,11 +16470,11 @@
       </c>
       <c r="Z22" s="185"/>
       <c r="AA22" s="251">
-        <v>8.4481793055069012</v>
+        <v>8.4481785648740875</v>
       </c>
       <c r="AB22" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22/10000,Trigger)</f>
-        <v>1.2343880149805198E-11</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="73"/>
     </row>
@@ -16642,7 +16630,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="251">
-        <v>7.6021916786556369</v>
+        <v>7.6021921304981905</v>
       </c>
       <c r="X24" s="185"/>
       <c r="Y24" s="257">
@@ -16650,11 +16638,11 @@
       </c>
       <c r="Z24" s="185"/>
       <c r="AA24" s="251">
-        <v>7.6021916786556369</v>
+        <v>7.6021921304981905</v>
       </c>
       <c r="AB24" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>-7.5307092376256102E-12</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="73"/>
     </row>
@@ -16726,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="251">
-        <v>7.2605626275178192</v>
+        <v>7.2605631892680202</v>
       </c>
       <c r="X25" s="185"/>
       <c r="Y25" s="257">
@@ -16734,11 +16722,11 @@
       </c>
       <c r="Z25" s="185"/>
       <c r="AA25" s="251">
-        <v>7.2605626275178192</v>
+        <v>7.2605631892680202</v>
       </c>
       <c r="AB25" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>-9.362503285668955E-12</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="73"/>
     </row>
@@ -16810,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="251">
-        <v>6.9678377370521822</v>
+        <v>6.9678381827887552</v>
       </c>
       <c r="X26" s="185"/>
       <c r="Y26" s="257">
@@ -16818,11 +16806,11 @@
       </c>
       <c r="Z26" s="185"/>
       <c r="AA26" s="251">
-        <v>6.9678377370521822</v>
+        <v>6.9678381827887552</v>
       </c>
       <c r="AB26" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>-7.4289428775298205E-12</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="73"/>
     </row>
@@ -16894,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="251">
-        <v>6.716741897724364</v>
+        <v>6.7167421175396607</v>
       </c>
       <c r="X27" s="185"/>
       <c r="Y27" s="257">
@@ -16902,11 +16890,11 @@
       </c>
       <c r="Z27" s="185"/>
       <c r="AA27" s="251">
-        <v>6.716741897724364</v>
+        <v>6.7167421175396607</v>
       </c>
       <c r="AB27" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>-3.6635883129271241E-12</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="73"/>
     </row>
@@ -17062,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="251">
-        <v>6.3109211679309087</v>
+        <v>6.3109210458113001</v>
       </c>
       <c r="X29" s="185"/>
       <c r="Y29" s="257">
@@ -17070,11 +17058,11 @@
       </c>
       <c r="Z29" s="185"/>
       <c r="AA29" s="251">
-        <v>6.3109211679309087</v>
+        <v>6.3109210458113001</v>
       </c>
       <c r="AB29" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>2.0353267682349241E-12</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="73"/>
     </row>
@@ -17146,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="251">
-        <v>6.1451514599136363</v>
+        <v>6.1451513072641246</v>
       </c>
       <c r="X30" s="185"/>
       <c r="Y30" s="257">
@@ -17154,11 +17142,11 @@
       </c>
       <c r="Z30" s="185"/>
       <c r="AA30" s="251">
-        <v>6.1451514599136363</v>
+        <v>6.1451513072641246</v>
       </c>
       <c r="AB30" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>2.5441585687138724E-12</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="73"/>
     </row>
@@ -17230,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="251">
-        <v>5.9989211679309093</v>
+        <v>5.9989210458112998</v>
       </c>
       <c r="X31" s="185"/>
       <c r="Y31" s="257">
@@ -17238,11 +17226,11 @@
       </c>
       <c r="Z31" s="185"/>
       <c r="AA31" s="251">
-        <v>5.9989211679309093</v>
+        <v>5.9989210458112998</v>
       </c>
       <c r="AB31" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>2.0353267682349241E-12</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="73"/>
     </row>
@@ -17314,7 +17302,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="251">
-        <v>5.8684605839654544</v>
+        <v>5.8684605229056501</v>
       </c>
       <c r="X32" s="185"/>
       <c r="Y32" s="257">
@@ -17322,11 +17310,11 @@
       </c>
       <c r="Z32" s="185"/>
       <c r="AA32" s="251">
-        <v>5.8684605839654544</v>
+        <v>5.8684605229056501</v>
       </c>
       <c r="AB32" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>1.017663384117462E-12</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="73"/>
     </row>
@@ -17482,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="251">
-        <v>5.640123649620727</v>
+        <v>5.6401236862566098</v>
       </c>
       <c r="X34" s="185"/>
       <c r="Y34" s="257">
@@ -17490,11 +17478,11 @@
       </c>
       <c r="Z34" s="185"/>
       <c r="AA34" s="251">
-        <v>5.640123649620727</v>
+        <v>5.6401236862566098</v>
       </c>
       <c r="AB34" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F34,AA34/10000,Trigger)</f>
-        <v>-6.1059805215452068E-13</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="73"/>
     </row>
@@ -17566,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="251">
-        <v>5.5368315328276365</v>
+        <v>5.5368315816754796</v>
       </c>
       <c r="X35" s="185"/>
       <c r="Y35" s="257">
@@ -17574,11 +17562,11 @@
       </c>
       <c r="Z35" s="185"/>
       <c r="AA35" s="251">
-        <v>5.5368315328276365</v>
+        <v>5.5368315816754796</v>
       </c>
       <c r="AB35" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F35,AA35/10000,Trigger)</f>
-        <v>-8.1413066392588274E-13</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="73"/>
     </row>
@@ -17650,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="251">
-        <v>5.4384775912241823</v>
+        <v>5.4384776339660448</v>
       </c>
       <c r="X36" s="185"/>
       <c r="Y36" s="257">
@@ -17658,11 +17646,11 @@
       </c>
       <c r="Z36" s="185"/>
       <c r="AA36" s="251">
-        <v>5.4384775912241823</v>
+        <v>5.4384776339660448</v>
       </c>
       <c r="AB36" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F36,AA36/10000,Trigger)</f>
-        <v>-7.1236430383009308E-13</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="73"/>
     </row>
@@ -17734,7 +17722,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="251">
-        <v>5.343415766413818</v>
+        <v>5.3434157908377395</v>
       </c>
       <c r="X37" s="185"/>
       <c r="Y37" s="257">
@@ -17742,11 +17730,11 @@
       </c>
       <c r="Z37" s="185"/>
       <c r="AA37" s="251">
-        <v>5.343415766413818</v>
+        <v>5.3434157908377395</v>
       </c>
       <c r="AB37" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F37,AA37/10000,Trigger)</f>
-        <v>-4.0706544038315862E-13</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="73"/>
     </row>
@@ -18206,10 +18194,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB5:AB42">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18325,7 +18313,7 @@
       <c r="AA2" s="52"/>
       <c r="AB2" s="269">
         <f>_xll.ohTrigger(AB5:AB42)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="161"/>
     </row>
@@ -18351,7 +18339,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(U5:U42,V5:V42),_xll.ohFilter(T5:T42,V5:V42))</f>
-        <v>obj_003d0#0017</v>
+        <v>obj_00428#0000</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -18386,7 +18374,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:09:32</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -18560,10 +18548,10 @@
         <v>CHF3L12L1Y=ICAP</v>
       </c>
       <c r="P6" s="251">
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="Q6" s="251">
-        <v>26.75</v>
+        <v>25.75</v>
       </c>
       <c r="R6" s="265">
         <v>0</v>
@@ -18573,7 +18561,7 @@
       </c>
       <c r="T6" s="251">
         <f t="shared" ref="T6:T42" si="6">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>22.75</v>
+        <v>21.75</v>
       </c>
       <c r="U6" s="261">
         <v>1</v>
@@ -18583,7 +18571,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="251">
-        <v>22.75</v>
+        <v>21.75</v>
       </c>
       <c r="X6" s="185"/>
       <c r="Y6" s="257">
@@ -18591,11 +18579,11 @@
       </c>
       <c r="Z6" s="185"/>
       <c r="AA6" s="251">
-        <v>22.75</v>
+        <v>21.75</v>
       </c>
       <c r="AB6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>-7.499999999999998E-5</v>
       </c>
       <c r="AC6" s="73"/>
       <c r="AD6" s="188"/>
@@ -18668,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="251">
-        <v>22.964301976173434</v>
+        <v>22.126035682216898</v>
       </c>
       <c r="X7" s="185"/>
       <c r="Y7" s="257">
@@ -18676,11 +18664,11 @@
       </c>
       <c r="Z7" s="185"/>
       <c r="AA7" s="251">
-        <v>22.964301976173434</v>
+        <v>22.126035682216898</v>
       </c>
       <c r="AB7" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7/10000,Trigger)</f>
-        <v>-2.6990698996992406E-5</v>
+        <v>-6.9348485686247623E-5</v>
       </c>
       <c r="AC7" s="73"/>
       <c r="AD7" s="188"/>
@@ -18754,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="251">
-        <v>23.192883161877496</v>
+        <v>22.501657091547038</v>
       </c>
       <c r="X8" s="185"/>
       <c r="Y8" s="257">
@@ -18762,11 +18750,11 @@
       </c>
       <c r="Z8" s="185"/>
       <c r="AA8" s="251">
-        <v>23.192883161877496</v>
+        <v>22.501657091547038</v>
       </c>
       <c r="AB8" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8/10000,Trigger)</f>
-        <v>-2.8185118395187333E-5</v>
+        <v>-6.3457577097995963E-5</v>
       </c>
       <c r="AC8" s="73"/>
     </row>
@@ -18839,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="251">
-        <v>23.45002276664281</v>
+        <v>22.876449955103659</v>
       </c>
       <c r="X9" s="185"/>
       <c r="Y9" s="257">
@@ -18847,11 +18835,11 @@
       </c>
       <c r="Z9" s="185"/>
       <c r="AA9" s="251">
-        <v>23.45002276664281</v>
+        <v>22.876449955103659</v>
       </c>
       <c r="AB9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,AA9/10000,Trigger)</f>
-        <v>-2.7786978595788735E-5</v>
+        <v>-5.7087879960746133E-5</v>
       </c>
       <c r="AC9" s="73"/>
     </row>
@@ -18900,10 +18888,10 @@
         <v>CHF3L12L2Y=ICAP</v>
       </c>
       <c r="P10" s="251">
-        <v>19.75</v>
+        <v>19.25</v>
       </c>
       <c r="Q10" s="251">
-        <v>27.75</v>
+        <v>27.25</v>
       </c>
       <c r="R10" s="265">
         <v>0</v>
@@ -18913,7 +18901,7 @@
       </c>
       <c r="T10" s="251">
         <f t="shared" si="6"/>
-        <v>23.75</v>
+        <v>23.25</v>
       </c>
       <c r="U10" s="262">
         <v>2</v>
@@ -18923,7 +18911,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="251">
-        <v>23.75</v>
+        <v>23.25</v>
       </c>
       <c r="X10" s="185"/>
       <c r="Y10" s="257">
@@ -18931,11 +18919,11 @@
       </c>
       <c r="Z10" s="185"/>
       <c r="AA10" s="251">
-        <v>23.75</v>
+        <v>23.25</v>
       </c>
       <c r="AB10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="AC10" s="73"/>
     </row>
@@ -18984,10 +18972,10 @@
         <v>CHF3L12L3Y=ICAP</v>
       </c>
       <c r="P11" s="251">
-        <v>21.25</v>
+        <v>20.75</v>
       </c>
       <c r="Q11" s="251">
-        <v>29.25</v>
+        <v>28.75</v>
       </c>
       <c r="R11" s="265">
         <v>0</v>
@@ -18997,7 +18985,7 @@
       </c>
       <c r="T11" s="251">
         <f t="shared" si="6"/>
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="U11" s="262">
         <v>3</v>
@@ -19007,7 +18995,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="251">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="X11" s="185"/>
       <c r="Y11" s="257">
@@ -19015,11 +19003,11 @@
       </c>
       <c r="Z11" s="185"/>
       <c r="AA11" s="251">
-        <v>25.25</v>
+        <v>24.75</v>
       </c>
       <c r="AB11" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F11,AA11/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC11" s="73"/>
     </row>
@@ -19068,10 +19056,10 @@
         <v>CHF3L12L4Y=ICAP</v>
       </c>
       <c r="P12" s="251">
-        <v>22.5</v>
+        <v>22.25</v>
       </c>
       <c r="Q12" s="251">
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="R12" s="265">
         <v>0</v>
@@ -19081,7 +19069,7 @@
       </c>
       <c r="T12" s="251">
         <f t="shared" si="6"/>
-        <v>26.5</v>
+        <v>26.25</v>
       </c>
       <c r="U12" s="262">
         <v>4</v>
@@ -19091,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="251">
-        <v>26.5</v>
+        <v>26.25</v>
       </c>
       <c r="X12" s="185"/>
       <c r="Y12" s="257">
@@ -19099,11 +19087,11 @@
       </c>
       <c r="Z12" s="185"/>
       <c r="AA12" s="251">
-        <v>26.5</v>
+        <v>26.25</v>
       </c>
       <c r="AB12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,AA12/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC12" s="73"/>
     </row>
@@ -19152,10 +19140,10 @@
         <v>CHF3L12L5Y=ICAP</v>
       </c>
       <c r="P13" s="251">
-        <v>23.75</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" s="251">
-        <v>31.75</v>
+        <v>31.5</v>
       </c>
       <c r="R13" s="265">
         <v>0</v>
@@ -19165,7 +19153,7 @@
       </c>
       <c r="T13" s="251">
         <f t="shared" si="6"/>
-        <v>27.75</v>
+        <v>27.5</v>
       </c>
       <c r="U13" s="262">
         <v>5</v>
@@ -19175,7 +19163,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="251">
-        <v>27.75</v>
+        <v>27.5</v>
       </c>
       <c r="X13" s="185"/>
       <c r="Y13" s="257">
@@ -19183,7 +19171,7 @@
       </c>
       <c r="Z13" s="185"/>
       <c r="AA13" s="251">
-        <v>27.75</v>
+        <v>27.5</v>
       </c>
       <c r="AB13" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F13,AA13/10000,Trigger)</f>
@@ -19236,10 +19224,10 @@
         <v>CHF3L12L6Y=ICAP</v>
       </c>
       <c r="P14" s="251">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="Q14" s="251">
-        <v>32.75</v>
+        <v>32.5</v>
       </c>
       <c r="R14" s="265">
         <v>0</v>
@@ -19249,7 +19237,7 @@
       </c>
       <c r="T14" s="251">
         <f t="shared" si="6"/>
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="U14" s="262">
         <v>6</v>
@@ -19259,7 +19247,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="251">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="X14" s="185"/>
       <c r="Y14" s="257">
@@ -19267,11 +19255,11 @@
       </c>
       <c r="Z14" s="185"/>
       <c r="AA14" s="251">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="AB14" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F14,AA14/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC14" s="73"/>
     </row>
@@ -19320,10 +19308,10 @@
         <v>CHF3L12L7Y=ICAP</v>
       </c>
       <c r="P15" s="251">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="Q15" s="251">
-        <v>33</v>
+        <v>32.75</v>
       </c>
       <c r="R15" s="265">
         <v>0</v>
@@ -19333,7 +19321,7 @@
       </c>
       <c r="T15" s="251">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="U15" s="262">
         <v>7</v>
@@ -19343,7 +19331,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="251">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="X15" s="185"/>
       <c r="Y15" s="257">
@@ -19351,11 +19339,11 @@
       </c>
       <c r="Z15" s="185"/>
       <c r="AA15" s="251">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AB15" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F15,AA15/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC15" s="73"/>
     </row>
@@ -19404,10 +19392,10 @@
         <v>CHF3L12L8Y=ICAP</v>
       </c>
       <c r="P16" s="251">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="Q16" s="251">
-        <v>32.75</v>
+        <v>32.5</v>
       </c>
       <c r="R16" s="265">
         <v>0</v>
@@ -19417,7 +19405,7 @@
       </c>
       <c r="T16" s="251">
         <f t="shared" si="6"/>
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="U16" s="262">
         <v>8</v>
@@ -19427,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="251">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="X16" s="185"/>
       <c r="Y16" s="257">
@@ -19435,7 +19423,7 @@
       </c>
       <c r="Z16" s="185"/>
       <c r="AA16" s="251">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="AB16" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16/10000,Trigger)</f>
@@ -19488,10 +19476,10 @@
         <v>CHF3L12L9Y=ICAP</v>
       </c>
       <c r="P17" s="251">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="Q17" s="251">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="R17" s="265">
         <v>0</v>
@@ -19501,7 +19489,7 @@
       </c>
       <c r="T17" s="251">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>27.75</v>
       </c>
       <c r="U17" s="262">
         <v>9</v>
@@ -19511,7 +19499,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="251">
-        <v>28</v>
+        <v>27.75</v>
       </c>
       <c r="X17" s="185"/>
       <c r="Y17" s="257">
@@ -19519,11 +19507,11 @@
       </c>
       <c r="Z17" s="185"/>
       <c r="AA17" s="251">
-        <v>28</v>
+        <v>27.75</v>
       </c>
       <c r="AB17" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC17" s="73"/>
     </row>
@@ -19572,10 +19560,10 @@
         <v>CHF3L12L10Y=ICAP</v>
       </c>
       <c r="P18" s="251">
-        <v>23.25</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="251">
-        <v>31.25</v>
+        <v>31</v>
       </c>
       <c r="R18" s="265">
         <v>0</v>
@@ -19585,7 +19573,7 @@
       </c>
       <c r="T18" s="251">
         <f t="shared" si="6"/>
-        <v>27.25</v>
+        <v>27</v>
       </c>
       <c r="U18" s="262">
         <v>10</v>
@@ -19595,7 +19583,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="251">
-        <v>27.25</v>
+        <v>27</v>
       </c>
       <c r="X18" s="185"/>
       <c r="Y18" s="257">
@@ -19603,11 +19591,11 @@
       </c>
       <c r="Z18" s="185"/>
       <c r="AA18" s="251">
-        <v>27.25</v>
+        <v>27</v>
       </c>
       <c r="AB18" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC18" s="73"/>
     </row>
@@ -19740,10 +19728,10 @@
         <v>CHF3L12L12Y=ICAP</v>
       </c>
       <c r="P20" s="251">
-        <v>22</v>
+        <v>21.75</v>
       </c>
       <c r="Q20" s="251">
-        <v>30</v>
+        <v>29.75</v>
       </c>
       <c r="R20" s="265">
         <v>0</v>
@@ -19753,7 +19741,7 @@
       </c>
       <c r="T20" s="251">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25.75</v>
       </c>
       <c r="U20" s="262">
         <v>12</v>
@@ -19763,7 +19751,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="251">
-        <v>26</v>
+        <v>25.75</v>
       </c>
       <c r="X20" s="185"/>
       <c r="Y20" s="257">
@@ -19771,11 +19759,11 @@
       </c>
       <c r="Z20" s="185"/>
       <c r="AA20" s="251">
-        <v>26</v>
+        <v>25.75</v>
       </c>
       <c r="AB20" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F20,AA20/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="AC20" s="73"/>
     </row>
@@ -19847,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="251">
-        <v>25.513849810968928</v>
+        <v>25.165614899560715</v>
       </c>
       <c r="X21" s="185"/>
       <c r="Y21" s="257">
@@ -19855,11 +19843,11 @@
       </c>
       <c r="Z21" s="185"/>
       <c r="AA21" s="251">
-        <v>25.513849810968928</v>
+        <v>25.165614899560715</v>
       </c>
       <c r="AB21" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21/10000,Trigger)</f>
-        <v>-8.6689845840010049E-11</v>
+        <v>-3.4526925177960719E-5</v>
       </c>
       <c r="AC21" s="73"/>
     </row>
@@ -19931,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="251">
-        <v>24.997143071939835</v>
+        <v>24.792693216535074</v>
       </c>
       <c r="X22" s="185"/>
       <c r="Y22" s="257">
@@ -19939,11 +19927,11 @@
       </c>
       <c r="Z22" s="185"/>
       <c r="AA22" s="251">
-        <v>24.997143071939835</v>
+        <v>24.792693216535074</v>
       </c>
       <c r="AB22" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22/10000,Trigger)</f>
-        <v>-6.1719401291127074E-11</v>
+        <v>-2.023384346909159E-5</v>
       </c>
       <c r="AC22" s="73"/>
     </row>
@@ -20099,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="251">
-        <v>24.062045234279147</v>
+        <v>24.181126397973411</v>
       </c>
       <c r="X24" s="185"/>
       <c r="Y24" s="257">
@@ -20107,11 +20095,11 @@
       </c>
       <c r="Z24" s="185"/>
       <c r="AA24" s="251">
-        <v>24.062045234279147</v>
+        <v>24.181126397973411</v>
       </c>
       <c r="AB24" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24/10000,Trigger)</f>
-        <v>3.7653546079707834E-11</v>
+        <v>1.1779303588166281E-5</v>
       </c>
       <c r="AC24" s="73"/>
     </row>
@@ -20183,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="251">
-        <v>23.68092110207678</v>
+        <v>23.828967954237214</v>
       </c>
       <c r="X25" s="185"/>
       <c r="Y25" s="257">
@@ -20191,11 +20179,11 @@
       </c>
       <c r="Z25" s="185"/>
       <c r="AA25" s="251">
-        <v>23.68092110207678</v>
+        <v>23.828967954237214</v>
       </c>
       <c r="AB25" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25/10000,Trigger)</f>
-        <v>4.6812516970445861E-11</v>
+        <v>1.4644539596098995E-5</v>
       </c>
       <c r="AC25" s="73"/>
     </row>
@@ -20267,7 +20255,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="251">
-        <v>23.343774352734837</v>
+        <v>23.461246311514312</v>
       </c>
       <c r="X26" s="185"/>
       <c r="Y26" s="257">
@@ -20275,11 +20263,11 @@
       </c>
       <c r="Z26" s="185"/>
       <c r="AA26" s="251">
-        <v>23.343774352734837</v>
+        <v>23.461246311514312</v>
       </c>
       <c r="AB26" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26/10000,Trigger)</f>
-        <v>3.7144714821329972E-11</v>
+        <v>1.1620123809948351E-5</v>
       </c>
       <c r="AC26" s="73"/>
     </row>
@@ -20351,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="251">
-        <v>23.037751735595261</v>
+        <v>23.095683112527606</v>
       </c>
       <c r="X27" s="185"/>
       <c r="Y27" s="257">
@@ -20359,11 +20347,11 @@
       </c>
       <c r="Z27" s="185"/>
       <c r="AA27" s="251">
-        <v>23.037751735595261</v>
+        <v>23.095683112527606</v>
       </c>
       <c r="AB27" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27/10000,Trigger)</f>
-        <v>1.8317941347795186E-11</v>
+        <v>5.7304720158649937E-6</v>
       </c>
       <c r="AC27" s="73"/>
     </row>
@@ -20519,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="251">
-        <v>22.470582369113743</v>
+        <v>22.438398270817999</v>
       </c>
       <c r="X29" s="185"/>
       <c r="Y29" s="257">
@@ -20527,11 +20515,11 @@
       </c>
       <c r="Z29" s="185"/>
       <c r="AA29" s="251">
-        <v>22.470582369113743</v>
+        <v>22.438398270817999</v>
       </c>
       <c r="AB29" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29/10000,Trigger)</f>
-        <v>-1.0176634274855489E-11</v>
+        <v>-3.1835955643694409E-6</v>
       </c>
       <c r="AC29" s="73"/>
     </row>
@@ -20603,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="251">
-        <v>22.201227961392181</v>
+        <v>22.160997838522498</v>
       </c>
       <c r="X30" s="185"/>
       <c r="Y30" s="257">
@@ -20611,11 +20599,11 @@
       </c>
       <c r="Z30" s="185"/>
       <c r="AA30" s="251">
-        <v>22.201227961392181</v>
+        <v>22.160997838522498</v>
       </c>
       <c r="AB30" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30/10000,Trigger)</f>
-        <v>-1.2720792735149145E-11</v>
+        <v>-3.9794944554616928E-6</v>
       </c>
       <c r="AC30" s="73"/>
     </row>
@@ -20687,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="251">
-        <v>21.946582369113745</v>
+        <v>21.914398270817998</v>
       </c>
       <c r="X31" s="185"/>
       <c r="Y31" s="257">
@@ -20695,11 +20683,11 @@
       </c>
       <c r="Z31" s="185"/>
       <c r="AA31" s="251">
-        <v>21.946582369113745</v>
+        <v>21.914398270817998</v>
       </c>
       <c r="AB31" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31/10000,Trigger)</f>
-        <v>-1.017663384117462E-11</v>
+        <v>-3.1835955643694409E-6</v>
       </c>
       <c r="AC31" s="73"/>
     </row>
@@ -20771,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="251">
-        <v>21.71129118455687</v>
+        <v>21.695199135408998</v>
       </c>
       <c r="X32" s="185"/>
       <c r="Y32" s="257">
@@ -20779,11 +20767,11 @@
       </c>
       <c r="Z32" s="185"/>
       <c r="AA32" s="251">
-        <v>21.71129118455687</v>
+        <v>21.695199135408998</v>
       </c>
       <c r="AB32" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32/10000,Trigger)</f>
-        <v>-5.0883173542681792E-12</v>
+        <v>-1.5917977821845036E-6</v>
       </c>
       <c r="AC32" s="73"/>
     </row>
@@ -20939,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="251">
-        <v>21.315625289265878</v>
+        <v>21.3252805187546</v>
       </c>
       <c r="X34" s="185"/>
       <c r="Y34" s="257">
@@ -20947,11 +20935,11 @@
       </c>
       <c r="Z34" s="185"/>
       <c r="AA34" s="251">
-        <v>21.315625289265878</v>
+        <v>21.3252805187546</v>
       </c>
       <c r="AB34" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F34,AA34/10000,Trigger)</f>
-        <v>3.0529905860332551E-12</v>
+        <v>9.5507866931061544E-7</v>
       </c>
       <c r="AC34" s="73"/>
     </row>
@@ -21023,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="251">
-        <v>21.154167052354502</v>
+        <v>21.167040691672803</v>
       </c>
       <c r="X35" s="185"/>
       <c r="Y35" s="257">
@@ -21031,11 +21019,11 @@
       </c>
       <c r="Z35" s="185"/>
       <c r="AA35" s="251">
-        <v>21.154167052354502</v>
+        <v>21.167040691672803</v>
       </c>
       <c r="AB35" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F35,AA35/10000,Trigger)</f>
-        <v>4.0706535364698482E-12</v>
+        <v>1.2734382257477764E-6</v>
       </c>
       <c r="AC35" s="73"/>
     </row>
@@ -21107,7 +21095,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="251">
-        <v>21.00989617081019</v>
+        <v>21.021160605213701</v>
       </c>
       <c r="X36" s="185"/>
       <c r="Y36" s="257">
@@ -21115,11 +21103,11 @@
       </c>
       <c r="Z36" s="185"/>
       <c r="AA36" s="251">
-        <v>21.00989617081019</v>
+        <v>21.021160605213701</v>
       </c>
       <c r="AB36" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F36,AA36/10000,Trigger)</f>
-        <v>3.5618222780919861E-12</v>
+        <v>1.1142584475294127E-6</v>
       </c>
       <c r="AC36" s="73"/>
     </row>
@@ -21191,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="251">
-        <v>20.877083526177252</v>
+        <v>20.883520345836402</v>
       </c>
       <c r="X37" s="185"/>
       <c r="Y37" s="257">
@@ -21199,11 +21187,11 @@
       </c>
       <c r="Z37" s="185"/>
       <c r="AA37" s="251">
-        <v>20.877083526177252</v>
+        <v>20.883520345836402</v>
       </c>
       <c r="AB37" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F37,AA37/10000,Trigger)</f>
-        <v>2.0353267682349241E-12</v>
+        <v>6.3671911287388819E-7</v>
       </c>
       <c r="AC37" s="73"/>
     </row>
@@ -21663,10 +21651,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB5:AB42">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23222,7 +23210,7 @@
       <c r="T2" s="7"/>
       <c r="U2" s="103">
         <f>_xll.ohTrigger(U5:U9)</f>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="V2" s="161"/>
     </row>
@@ -23270,7 +23258,7 @@
       </c>
       <c r="L4" s="334" t="str">
         <f>_xll.RData(L5,M4,"RTFEED:IDN",ReutersRtMode,,M5)</f>
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:02</v>
       </c>
       <c r="M4" s="335" t="s">
         <v>147</v>
@@ -23327,7 +23315,7 @@
         <v>US2Y3LATM=ICAP</v>
       </c>
       <c r="M5" s="251">
-        <v>63.910000000000004</v>
+        <v>62.120000000000005</v>
       </c>
       <c r="N5" s="336"/>
       <c r="O5" s="172" t="s">
@@ -23593,7 +23581,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="360" t="str">
         <f>_xll.RData(K6:K13,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 11:00:14</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="L5" s="361" t="s">
         <v>189</v>
@@ -23658,10 +23646,10 @@
         <v>CHFTOIS=</v>
       </c>
       <c r="L6" s="385">
-        <v>42129</v>
+        <v>42130</v>
       </c>
       <c r="M6" s="386">
-        <v>-0.38750000000000001</v>
+        <v>-0.375</v>
       </c>
       <c r="N6" s="386" t="b">
         <f t="shared" ref="N6:N13" si="1">IF(AND(ISNUMBER($M6),$M6&lt;&gt;0%),TRUE,FALSE)</f>
@@ -23674,23 +23662,23 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="384">
         <f>_xll.qlIndexFixing($E6,$L6,TRUE,$N6)</f>
-        <v>-8.000000001890939E-3</v>
+        <v>-6.500000047284793E-3</v>
       </c>
       <c r="R6" s="384">
         <f>IF($O6,_xll.qlIndexFixing($E6,$L6,FALSE,$N6),"-")</f>
-        <v>-3.875E-3</v>
+        <v>-3.7499999999999999E-3</v>
       </c>
       <c r="S6" s="384">
         <f t="shared" ref="S6:S7" si="2">Q6-R6</f>
-        <v>-4.125000001890939E-3</v>
+        <v>-2.7500000472847931E-3</v>
       </c>
       <c r="T6" s="384">
         <f>_xll.qlIndexFixing($E6,$L6,TRUE,$R6)</f>
-        <v>-8.000000001890939E-3</v>
+        <v>-6.500000047284793E-3</v>
       </c>
       <c r="U6" s="388">
         <f>IF(ISERROR(S6),0,ABS(S6))</f>
-        <v>4.125000001890939E-3</v>
+        <v>2.7500000472847931E-3</v>
       </c>
       <c r="V6" s="9"/>
     </row>
@@ -23717,35 +23705,35 @@
         <v>CHFSNFSR=</v>
       </c>
       <c r="L7" s="363">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M7" s="364">
-        <v>-0.77</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="N7" s="364" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O7" s="365" t="e">
+      <c r="O7" s="365" t="b">
         <f>IF($N7,_xll.qlIndexAddFixings($E7,$L7,$M7/100,TRUE,ISERROR($Q7)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="P7" s="18"/>
-      <c r="Q7" s="362" t="e">
+      <c r="Q7" s="362">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$N7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R7" s="362" t="e">
+        <v>-7.6500000000000005E-3</v>
+      </c>
+      <c r="R7" s="362">
         <f>IF($O7,_xll.qlIndexFixing($E7,$L7,FALSE,$N7),"-")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S7" s="362" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T7" s="362" t="e">
+        <v>-7.6500000000000005E-3</v>
+      </c>
+      <c r="S7" s="362">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="362">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$R7)</f>
-        <v>#NUM!</v>
+        <v>-7.6500000000000005E-3</v>
       </c>
       <c r="U7" s="10">
         <f t="shared" ref="U7" si="4">IF(ISERROR(S7),0,ABS(S7))</f>
@@ -23785,10 +23773,10 @@
         <v>CHFSWFSR=</v>
       </c>
       <c r="L8" s="363">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M8" s="364">
-        <v>-0.81</v>
+        <v>-0.80800000000000005</v>
       </c>
       <c r="N8" s="364" t="b">
         <f t="shared" si="1"/>
@@ -23801,11 +23789,11 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="362">
         <f>_xll.qlIndexFixing($E8,$L8,TRUE,$N8)</f>
-        <v>-8.1000000000000013E-3</v>
+        <v>-8.0800000000000004E-3</v>
       </c>
       <c r="R8" s="362">
         <f>IF($O8,_xll.qlIndexFixing($E8,$L8,FALSE,$N8),"-")</f>
-        <v>-8.1000000000000013E-3</v>
+        <v>-8.0800000000000004E-3</v>
       </c>
       <c r="S8" s="362">
         <f t="shared" ref="S8:S13" si="5">Q8-R8</f>
@@ -23813,7 +23801,7 @@
       </c>
       <c r="T8" s="362">
         <f>_xll.qlIndexFixing($E8,$L8,TRUE,$R8)</f>
-        <v>-8.1000000000000013E-3</v>
+        <v>-8.0800000000000004E-3</v>
       </c>
       <c r="U8" s="10">
         <f t="shared" ref="U8:U13" si="6">IF(ISERROR(S8),0,ABS(S8))</f>
@@ -23856,7 +23844,7 @@
         <v>CHF1MFSR=</v>
       </c>
       <c r="L9" s="363">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M9" s="364">
         <v>-0.81700000000000006</v>
@@ -23924,10 +23912,10 @@
         <v>CHF2MFSR=</v>
       </c>
       <c r="L10" s="363">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M10" s="364">
-        <v>-0.81200000000000006</v>
+        <v>-0.80900000000000005</v>
       </c>
       <c r="N10" s="364" t="b">
         <f t="shared" si="1"/>
@@ -23940,11 +23928,11 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="362">
         <f>_xll.qlIndexFixing($E10,$L10,TRUE,$N10)</f>
-        <v>-8.1200000000000005E-3</v>
+        <v>-8.09E-3</v>
       </c>
       <c r="R10" s="362">
         <f>IF($O10,_xll.qlIndexFixing($E10,$L10,FALSE,$N10),"-")</f>
-        <v>-8.1200000000000005E-3</v>
+        <v>-8.09E-3</v>
       </c>
       <c r="S10" s="362">
         <f t="shared" si="5"/>
@@ -23952,7 +23940,7 @@
       </c>
       <c r="T10" s="362">
         <f>_xll.qlIndexFixing($E10,$L10,TRUE,$R10)</f>
-        <v>-8.1200000000000005E-3</v>
+        <v>-8.09E-3</v>
       </c>
       <c r="U10" s="10">
         <f t="shared" si="6"/>
@@ -23995,10 +23983,10 @@
         <v>CHF3MFSR=</v>
       </c>
       <c r="L11" s="363">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M11" s="364">
-        <v>-0.79500000000000004</v>
+        <v>-0.79300000000000004</v>
       </c>
       <c r="N11" s="364" t="b">
         <f t="shared" si="1"/>
@@ -24011,11 +23999,11 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="362">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$N11)</f>
-        <v>-7.9500000000000005E-3</v>
+        <v>-7.9299999999999995E-3</v>
       </c>
       <c r="R11" s="362">
         <f>IF($O11,_xll.qlIndexFixing($E11,$L11,FALSE,$N11),"-")</f>
-        <v>-7.9500000000000005E-3</v>
+        <v>-7.9299999999999995E-3</v>
       </c>
       <c r="S11" s="362">
         <f t="shared" si="5"/>
@@ -24023,7 +24011,7 @@
       </c>
       <c r="T11" s="362">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$R11)</f>
-        <v>-7.9500000000000005E-3</v>
+        <v>-7.9299999999999995E-3</v>
       </c>
       <c r="U11" s="10">
         <f t="shared" si="6"/>
@@ -24066,10 +24054,10 @@
         <v>CHF6MFSR=</v>
       </c>
       <c r="L12" s="363">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M12" s="364">
-        <v>-0.71160000000000001</v>
+        <v>-0.70760000000000001</v>
       </c>
       <c r="N12" s="364" t="b">
         <f t="shared" si="1"/>
@@ -24082,11 +24070,11 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="362">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$N12)</f>
-        <v>-7.1159999999999999E-3</v>
+        <v>-7.0759999999999998E-3</v>
       </c>
       <c r="R12" s="362">
         <f>IF($O12,_xll.qlIndexFixing($E12,$L12,FALSE,$N12),"-")</f>
-        <v>-7.1159999999999999E-3</v>
+        <v>-7.0759999999999998E-3</v>
       </c>
       <c r="S12" s="362">
         <f t="shared" si="5"/>
@@ -24094,7 +24082,7 @@
       </c>
       <c r="T12" s="362">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$R12)</f>
-        <v>-7.1159999999999999E-3</v>
+        <v>-7.0759999999999998E-3</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="6"/>
@@ -24134,10 +24122,10 @@
         <v>CHF1YFSR=</v>
       </c>
       <c r="L13" s="367">
-        <v>42125</v>
+        <v>42129</v>
       </c>
       <c r="M13" s="368">
-        <v>-0.58760000000000001</v>
+        <v>-0.58960000000000001</v>
       </c>
       <c r="N13" s="368" t="b">
         <f t="shared" si="1"/>
@@ -24150,11 +24138,11 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="366">
         <f>_xll.qlIndexFixing($E13,$L13,TRUE,$N13)</f>
-        <v>-5.8760000000000001E-3</v>
+        <v>-5.8960000000000002E-3</v>
       </c>
       <c r="R13" s="366">
         <f>IF($O13,_xll.qlIndexFixing($E13,$L13,FALSE,$N13),"-")</f>
-        <v>-5.8760000000000001E-3</v>
+        <v>-5.8960000000000002E-3</v>
       </c>
       <c r="S13" s="366">
         <f t="shared" si="5"/>
@@ -24162,7 +24150,7 @@
       </c>
       <c r="T13" s="366">
         <f>_xll.qlIndexFixing($E13,$L13,TRUE,$R13)</f>
-        <v>-5.8760000000000001E-3</v>
+        <v>-5.8960000000000002E-3</v>
       </c>
       <c r="U13" s="10">
         <f t="shared" si="6"/>
@@ -24263,7 +24251,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="33" t="str">
         <f>_xll.RHistory(K9,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,K19)</f>
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:04</v>
       </c>
       <c r="L18" s="34" t="e">
         <f>_xll.qlIndexAddFixings(E9,K21,L21/100,TRUE,Trigger)</f>
@@ -24272,7 +24260,7 @@
       <c r="M18" s="35"/>
       <c r="N18" s="33" t="str">
         <f>_xll.RHistory(K12,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,N19)</f>
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="O18" s="34" t="e">
         <f>_xll.qlIndexAddFixings(E12,N21,O21/100,TRUE,Trigger)</f>
@@ -24310,7 +24298,7 @@
       </c>
       <c r="F20" s="352" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42129 END:42129 INTERVAL:1D</v>
+        <v>START:42130 END:42130 INTERVAL:1D</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -24389,7 +24377,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="33" t="str">
         <f>_xll.RHistory(K11,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,K24)</f>
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:04</v>
       </c>
       <c r="L23" s="34" t="e">
         <f>_xll.qlIndexAddFixings(E11,K26,L26/100,TRUE,Trigger)</f>
@@ -24398,7 +24386,7 @@
       <c r="M23" s="35"/>
       <c r="N23" s="33" t="str">
         <f>_xll.RHistory(K13,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,N24)</f>
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:04</v>
       </c>
       <c r="O23" s="34" t="e">
         <f>_xll.qlIndexAddFixings(E13,N26,O26/100,TRUE,Trigger)</f>
@@ -24492,10 +24480,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S6:S13">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24660,7 +24648,7 @@
       </c>
       <c r="L5" s="101" t="str">
         <f>_xll.RData(L6:L15,M5:N5,"RTFEED:IDN",ReutersRtMode,,M6)</f>
-        <v>Updated at 10:36:28</v>
+        <v>Paused at 12:03:02</v>
       </c>
       <c r="M5" s="396" t="s">
         <v>146</v>
@@ -24713,14 +24701,14 @@
         <v>CHFOND=ICAP</v>
       </c>
       <c r="M6" s="79">
-        <v>-0.75</v>
+        <v>-0.65</v>
       </c>
       <c r="N6" s="79">
-        <v>-1.25</v>
+        <v>-0.85</v>
       </c>
       <c r="O6" s="79">
         <f t="array" ref="O6:O7">M6:M7</f>
-        <v>-0.75</v>
+        <v>-0.65</v>
       </c>
       <c r="P6" s="408"/>
       <c r="Q6" s="79" t="s">
@@ -24731,11 +24719,11 @@
       </c>
       <c r="S6" s="79">
         <f t="array" ref="S6:S15">QuoteLive</f>
-        <v>-0.75</v>
+        <v>-0.65</v>
       </c>
       <c r="T6" s="177">
         <f>_xll.qlSimpleQuoteSetValue(F6,S6/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999915E-4</v>
       </c>
       <c r="U6" s="130"/>
     </row>
@@ -24765,13 +24753,13 @@
         <v>CHFTND=ICAP</v>
       </c>
       <c r="M7" s="80">
-        <v>-0.8</v>
+        <v>-0.65</v>
       </c>
       <c r="N7" s="80">
-        <v>-1</v>
+        <v>-0.85</v>
       </c>
       <c r="O7" s="80">
-        <v>-0.8</v>
+        <v>-0.65</v>
       </c>
       <c r="P7" s="408"/>
       <c r="Q7" s="80">
@@ -24781,11 +24769,11 @@
         <v>213</v>
       </c>
       <c r="S7" s="80">
-        <v>-0.8</v>
+        <v>-0.65</v>
       </c>
       <c r="T7" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F7,S7/100,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999996E-3</v>
       </c>
       <c r="U7" s="130"/>
     </row>
@@ -24821,11 +24809,11 @@
         <v>288</v>
       </c>
       <c r="N8" s="79">
-        <v>-0.77</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="O8" s="79">
         <f t="array" ref="O8:O15">N8:N15</f>
-        <v>-0.77</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="P8" s="408"/>
       <c r="Q8" s="79">
@@ -24835,7 +24823,7 @@
         <v>213</v>
       </c>
       <c r="S8" s="79">
-        <v>-0.77</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="T8" s="177">
         <f>_xll.qlSimpleQuoteSetValue(F8,S8/100,Trigger)</f>
@@ -24875,10 +24863,10 @@
         <v>288</v>
       </c>
       <c r="N9" s="80">
-        <v>-0.81</v>
+        <v>-0.80800000000000005</v>
       </c>
       <c r="O9" s="80">
-        <v>-0.81</v>
+        <v>-0.80800000000000005</v>
       </c>
       <c r="P9" s="408"/>
       <c r="Q9" s="80">
@@ -24888,7 +24876,7 @@
         <v>213</v>
       </c>
       <c r="S9" s="80">
-        <v>-0.81</v>
+        <v>-0.80800000000000005</v>
       </c>
       <c r="T9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,S9/100,Trigger)</f>
@@ -25034,10 +25022,10 @@
         <v>288</v>
       </c>
       <c r="N12" s="80">
-        <v>-0.81200000000000006</v>
+        <v>-0.80900000000000005</v>
       </c>
       <c r="O12" s="80">
-        <v>-0.81200000000000006</v>
+        <v>-0.80900000000000005</v>
       </c>
       <c r="P12" s="408"/>
       <c r="Q12" s="80">
@@ -25047,7 +25035,7 @@
         <v>213</v>
       </c>
       <c r="S12" s="80">
-        <v>-0.81200000000000006</v>
+        <v>-0.80900000000000005</v>
       </c>
       <c r="T12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,S12/100,Trigger)</f>
@@ -25087,10 +25075,10 @@
         <v>288</v>
       </c>
       <c r="N13" s="80">
-        <v>-0.79500000000000004</v>
+        <v>-0.79300000000000004</v>
       </c>
       <c r="O13" s="80">
-        <v>-0.79500000000000004</v>
+        <v>-0.79300000000000004</v>
       </c>
       <c r="P13" s="408"/>
       <c r="Q13" s="80">
@@ -25100,7 +25088,7 @@
         <v>213</v>
       </c>
       <c r="S13" s="80">
-        <v>-0.79500000000000004</v>
+        <v>-0.79300000000000004</v>
       </c>
       <c r="T13" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F13,S13/100,Trigger)</f>
@@ -25140,10 +25128,10 @@
         <v>288</v>
       </c>
       <c r="N14" s="80">
-        <v>-0.71160000000000001</v>
+        <v>-0.70760000000000001</v>
       </c>
       <c r="O14" s="80">
-        <v>-0.71160000000000001</v>
+        <v>-0.70760000000000001</v>
       </c>
       <c r="P14" s="408"/>
       <c r="Q14" s="80">
@@ -25153,7 +25141,7 @@
         <v>213</v>
       </c>
       <c r="S14" s="80">
-        <v>-0.71160000000000001</v>
+        <v>-0.70760000000000001</v>
       </c>
       <c r="T14" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F14,S14/100,Trigger)</f>
@@ -25193,10 +25181,10 @@
         <v>288</v>
       </c>
       <c r="N15" s="403">
-        <v>-0.58760000000000001</v>
+        <v>-0.58960000000000001</v>
       </c>
       <c r="O15" s="403">
-        <v>-0.58760000000000001</v>
+        <v>-0.58960000000000001</v>
       </c>
       <c r="P15" s="409"/>
       <c r="Q15" s="81">
@@ -25206,7 +25194,7 @@
         <v>213</v>
       </c>
       <c r="S15" s="81">
-        <v>-0.58760000000000001</v>
+        <v>-0.58960000000000001</v>
       </c>
       <c r="T15" s="179">
         <f>_xll.qlSimpleQuoteSetValue(F15,S15/100,Trigger)</f>
@@ -25238,10 +25226,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="T6:T15">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25350,7 +25338,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="103">
         <f>_xll.ohTrigger(Z5:Z40)</f>
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="145"/>
       <c r="AB2" s="192"/>
@@ -25410,7 +25398,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O40,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:09:22</v>
+        <v>Paused at 12:03:02</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -25460,7 +25448,7 @@
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF1x4F_Quote#0009</v>
+        <v>CHF1x4F_Quote#0000</v>
       </c>
       <c r="G5" s="196" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -25488,10 +25476,10 @@
         <v>CHF1X4F=ICAP</v>
       </c>
       <c r="P5" s="180">
-        <v>-0.84</v>
+        <v>-0.84499999999999997</v>
       </c>
       <c r="Q5" s="180">
-        <v>-0.79</v>
+        <v>-0.79500000000000004</v>
       </c>
       <c r="R5" s="180">
         <v>0</v>
@@ -25501,7 +25489,7 @@
       </c>
       <c r="T5" s="114">
         <f>IF(ISERROR(AVERAGE(P5,Q5)),#NUM!,AVERAGE(P5,Q5))</f>
-        <v>-0.81499999999999995</v>
+        <v>-0.82000000000000006</v>
       </c>
       <c r="U5" s="181">
         <f>Q5-P5</f>
@@ -25514,11 +25502,11 @@
       <c r="X5" s="183"/>
       <c r="Y5" s="181">
         <f t="array" ref="Y5:Y40">QuoteLive</f>
-        <v>-0.81499999999999995</v>
-      </c>
-      <c r="Z5" s="115" t="e">
+        <v>-0.82000000000000006</v>
+      </c>
+      <c r="Z5" s="115">
         <f>_xll.qlSimpleQuoteSetValue(F5,Y5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="147"/>
       <c r="AB5" s="192"/>
@@ -25539,7 +25527,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF2x5F_Quote#0009</v>
+        <v>CHF2x5F_Quote#0000</v>
       </c>
       <c r="G6" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -25566,10 +25554,10 @@
         <v>CHF2X5F=ICAP</v>
       </c>
       <c r="P6" s="180">
-        <v>-0.85</v>
+        <v>-0.85499999999999998</v>
       </c>
       <c r="Q6" s="180">
-        <v>-0.8</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="R6" s="180">
         <v>0</v>
@@ -25579,7 +25567,7 @@
       </c>
       <c r="T6" s="114">
         <f t="shared" ref="T6:T40" si="4">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>-0.82499999999999996</v>
+        <v>-0.83000000000000007</v>
       </c>
       <c r="U6" s="180">
         <f t="shared" ref="U6:U40" si="5">Q6-P6</f>
@@ -25591,11 +25579,11 @@
       </c>
       <c r="X6" s="183"/>
       <c r="Y6" s="180">
-        <v>-0.82499999999999996</v>
-      </c>
-      <c r="Z6" s="116" t="e">
+        <v>-0.83000000000000007</v>
+      </c>
+      <c r="Z6" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="147"/>
       <c r="AB6" s="192"/>
@@ -25616,7 +25604,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF3x6F_Quote#0009</v>
+        <v>CHF3x6F_Quote#0000</v>
       </c>
       <c r="G7" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -25672,7 +25660,7 @@
       </c>
       <c r="Z7" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999997963E-5</v>
       </c>
       <c r="AA7" s="147"/>
       <c r="AB7" s="192"/>
@@ -25693,7 +25681,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF4x7F_Quote#0009</v>
+        <v>CHF4x7F_Quote#0000</v>
       </c>
       <c r="G8" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -25770,7 +25758,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF5x8F_Quote#0009</v>
+        <v>CHF5x8F_Quote#0000</v>
       </c>
       <c r="G9" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -25847,7 +25835,7 @@
       </c>
       <c r="F10" s="87" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF6x9F_Quote#0009</v>
+        <v>CHF6x9F_Quote#0000</v>
       </c>
       <c r="G10" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -25874,10 +25862,10 @@
         <v>CHF6X9F=ICAP</v>
       </c>
       <c r="P10" s="180">
-        <v>-0.86</v>
+        <v>-0.84499999999999997</v>
       </c>
       <c r="Q10" s="180">
-        <v>-0.81</v>
+        <v>-0.79500000000000004</v>
       </c>
       <c r="R10" s="180">
         <v>0</v>
@@ -25887,7 +25875,7 @@
       </c>
       <c r="T10" s="182">
         <f t="shared" si="4"/>
-        <v>-0.83499999999999996</v>
+        <v>-0.82000000000000006</v>
       </c>
       <c r="U10" s="182">
         <f t="shared" si="5"/>
@@ -25899,11 +25887,11 @@
       </c>
       <c r="X10" s="183"/>
       <c r="Y10" s="182">
-        <v>-0.83499999999999996</v>
+        <v>-0.82000000000000006</v>
       </c>
       <c r="Z10" s="118">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA10" s="147"/>
       <c r="AB10" s="192"/>
@@ -25925,7 +25913,7 @@
       </c>
       <c r="F11" s="85" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF1x7F_Quote#0009</v>
+        <v>CHF1x7F_Quote#0000</v>
       </c>
       <c r="G11" s="196" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -26003,7 +25991,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF2x8F_Quote#0009</v>
+        <v>CHF2x8F_Quote#0000</v>
       </c>
       <c r="G12" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -26081,7 +26069,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF3x9F_Quote#0009</v>
+        <v>CHF3x9F_Quote#0000</v>
       </c>
       <c r="G13" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -26159,7 +26147,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF4x10F_Quote#0009</v>
+        <v>CHF4x10F_Quote#0000</v>
       </c>
       <c r="G14" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -26237,7 +26225,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF5x11F_Quote#0009</v>
+        <v>CHF5x11F_Quote#0000</v>
       </c>
       <c r="G15" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -26315,7 +26303,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF6x12F_Quote#0010</v>
+        <v>CHF6x12F_Quote#0000</v>
       </c>
       <c r="G16" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -26342,10 +26330,10 @@
         <v>CHF6X12F=ICAP</v>
       </c>
       <c r="P16" s="180">
-        <v>-0.74</v>
+        <v>-0.73</v>
       </c>
       <c r="Q16" s="180">
-        <v>-0.69000000000000006</v>
+        <v>-0.68</v>
       </c>
       <c r="R16" s="180">
         <v>0</v>
@@ -26355,7 +26343,7 @@
       </c>
       <c r="T16" s="114">
         <f t="shared" si="4"/>
-        <v>-0.71500000000000008</v>
+        <v>-0.70500000000000007</v>
       </c>
       <c r="U16" s="180">
         <f t="shared" si="5"/>
@@ -26367,11 +26355,11 @@
       </c>
       <c r="X16" s="183"/>
       <c r="Y16" s="180">
-        <v>-0.71500000000000008</v>
+        <v>-0.70500000000000007</v>
       </c>
       <c r="Z16" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>4.999999999999883E-5</v>
       </c>
       <c r="AA16" s="147"/>
       <c r="AB16" s="391"/>
@@ -26393,7 +26381,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF7x13F_Quote#0001</v>
+        <v>CHF7x13F_Quote#0000</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="141"/>
@@ -26468,7 +26456,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF8x14F_Quote#0009</v>
+        <v>CHF8x14F_Quote#0000</v>
       </c>
       <c r="G18" s="197"/>
       <c r="H18" s="141"/>
@@ -26543,7 +26531,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF9x15F_Quote#0011</v>
+        <v>CHF9x15F_Quote#0000</v>
       </c>
       <c r="G19" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -26570,10 +26558,10 @@
         <v>CHF9X15F=ICAP</v>
       </c>
       <c r="P19" s="180">
-        <v>-0.70499999999999996</v>
+        <v>-0.69000000000000006</v>
       </c>
       <c r="Q19" s="180">
-        <v>-0.64500000000000002</v>
+        <v>-0.63</v>
       </c>
       <c r="R19" s="180">
         <v>0</v>
@@ -26583,11 +26571,11 @@
       </c>
       <c r="T19" s="114">
         <f t="shared" si="4"/>
-        <v>-0.67500000000000004</v>
+        <v>-0.66</v>
       </c>
       <c r="U19" s="180">
         <f t="shared" si="5"/>
-        <v>5.9999999999999942E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="V19" s="183"/>
       <c r="W19" s="180">
@@ -26595,11 +26583,11 @@
       </c>
       <c r="X19" s="183"/>
       <c r="Y19" s="180">
-        <v>-0.67500000000000004</v>
+        <v>-0.66</v>
       </c>
       <c r="Z19" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA19" s="147"/>
       <c r="AB19" s="391"/>
@@ -26771,7 +26759,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF12x18F_Quote#0011</v>
+        <v>CHF12x18F_Quote#0000</v>
       </c>
       <c r="G22" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -26798,10 +26786,10 @@
         <v>CHF12X18F=ICAP</v>
       </c>
       <c r="P22" s="180">
-        <v>-0.65</v>
+        <v>-0.63</v>
       </c>
       <c r="Q22" s="180">
-        <v>-0.59</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="R22" s="180">
         <v>0</v>
@@ -26811,11 +26799,11 @@
       </c>
       <c r="T22" s="114">
         <f t="shared" si="4"/>
-        <v>-0.62</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="U22" s="180">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="V22" s="183"/>
       <c r="W22" s="180">
@@ -26823,11 +26811,11 @@
       </c>
       <c r="X22" s="183"/>
       <c r="Y22" s="180">
-        <v>-0.62</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="Z22" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22/100,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999909E-4</v>
       </c>
       <c r="AA22" s="147"/>
       <c r="AB22" s="391"/>
@@ -27023,10 +27011,10 @@
         <v>CHF15X21F=ICAP</v>
       </c>
       <c r="P25" s="180">
-        <v>-0.59499999999999997</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="Q25" s="180">
-        <v>-0.53500000000000003</v>
+        <v>-0.51</v>
       </c>
       <c r="R25" s="180">
         <v>0</v>
@@ -27036,11 +27024,11 @@
       </c>
       <c r="T25" s="114">
         <f t="shared" si="4"/>
-        <v>-0.56499999999999995</v>
+        <v>-0.54</v>
       </c>
       <c r="U25" s="180">
         <f t="shared" si="5"/>
-        <v>5.9999999999999942E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="V25" s="183"/>
       <c r="W25" s="180">
@@ -27048,11 +27036,11 @@
       </c>
       <c r="X25" s="183"/>
       <c r="Y25" s="180">
-        <v>-0.56499999999999995</v>
-      </c>
-      <c r="Z25" s="116" t="e">
+        <v>-0.54</v>
+      </c>
+      <c r="Z25" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.4999999999999909E-4</v>
       </c>
       <c r="AA25" s="147"/>
       <c r="AB25" s="391"/>
@@ -27224,7 +27212,7 @@
       </c>
       <c r="F28" s="87" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF18x24F_Quote#0010</v>
+        <v>CHF18x24F_Quote#0000</v>
       </c>
       <c r="G28" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -27251,10 +27239,10 @@
         <v>CHF18X24F=ICAP</v>
       </c>
       <c r="P28" s="182">
-        <v>-0.53500000000000003</v>
+        <v>-0.505</v>
       </c>
       <c r="Q28" s="182">
-        <v>-0.47500000000000003</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="R28" s="182">
         <v>0</v>
@@ -27264,7 +27252,7 @@
       </c>
       <c r="T28" s="182">
         <f t="shared" si="4"/>
-        <v>-0.505</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="U28" s="182">
         <f t="shared" si="5"/>
@@ -27276,11 +27264,11 @@
       </c>
       <c r="X28" s="183"/>
       <c r="Y28" s="182">
-        <v>-0.505</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="Z28" s="246">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AA28" s="147"/>
       <c r="AB28" s="192"/>
@@ -27302,7 +27290,7 @@
       </c>
       <c r="F29" s="85" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF1x13F_Quote#0010</v>
+        <v>CHF1x13F_Quote#0000</v>
       </c>
       <c r="G29" s="196" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -27378,7 +27366,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF2x14F_Quote#0009</v>
+        <v>CHF2x14F_Quote#0000</v>
       </c>
       <c r="G30" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -27405,10 +27393,10 @@
         <v>CHF2X14F=ICAP</v>
       </c>
       <c r="P30" s="180">
-        <v>-0.63500000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="Q30" s="180">
-        <v>-0.53500000000000003</v>
+        <v>-0.53</v>
       </c>
       <c r="R30" s="180">
         <v>0</v>
@@ -27418,7 +27406,7 @@
       </c>
       <c r="T30" s="114">
         <f t="shared" si="4"/>
-        <v>-0.58499999999999996</v>
+        <v>-0.58000000000000007</v>
       </c>
       <c r="U30" s="180">
         <f t="shared" si="5"/>
@@ -27430,11 +27418,11 @@
       </c>
       <c r="X30" s="183"/>
       <c r="Y30" s="180">
-        <v>-0.58499999999999996</v>
+        <v>-0.58000000000000007</v>
       </c>
       <c r="Z30" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F30,Y30/100,Trigger)</f>
-        <v>0</v>
+        <v>4.999999999999883E-5</v>
       </c>
       <c r="AA30" s="148"/>
     </row>
@@ -27454,7 +27442,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF3x15F_Quote#0009</v>
+        <v>CHF3x15F_Quote#0000</v>
       </c>
       <c r="G31" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -27481,10 +27469,10 @@
         <v>CHF3X15F=ICAP</v>
       </c>
       <c r="P31" s="180">
-        <v>-0.625</v>
+        <v>-0.62</v>
       </c>
       <c r="Q31" s="180">
-        <v>-0.52500000000000002</v>
+        <v>-0.52</v>
       </c>
       <c r="R31" s="180">
         <v>0</v>
@@ -27494,7 +27482,7 @@
       </c>
       <c r="T31" s="114">
         <f t="shared" si="4"/>
-        <v>-0.57499999999999996</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="U31" s="180">
         <f t="shared" si="5"/>
@@ -27506,11 +27494,11 @@
       </c>
       <c r="X31" s="183"/>
       <c r="Y31" s="180">
-        <v>-0.57499999999999996</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="Z31" s="116">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="AA31" s="148"/>
     </row>
@@ -27530,7 +27518,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF4x16F_Quote#0009</v>
+        <v>CHF4x16F_Quote#0000</v>
       </c>
       <c r="G32" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -27606,7 +27594,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF5x17F_Quote#0009</v>
+        <v>CHF5x17F_Quote#0000</v>
       </c>
       <c r="G33" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -27682,7 +27670,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF6x18F_Quote#0009</v>
+        <v>CHF6x18F_Quote#0000</v>
       </c>
       <c r="G34" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -27758,7 +27746,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF7x19F_Quote#0009</v>
+        <v>CHF7x19F_Quote#0000</v>
       </c>
       <c r="G35" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -27834,7 +27822,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF8x20F_Quote#0009</v>
+        <v>CHF8x20F_Quote#0000</v>
       </c>
       <c r="G36" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -27910,7 +27898,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF9x21F_Quote#0009</v>
+        <v>CHF9x21F_Quote#0000</v>
       </c>
       <c r="G37" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -27986,7 +27974,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF10x22F_Quote#0009</v>
+        <v>CHF10x22F_Quote#0000</v>
       </c>
       <c r="G38" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -28062,7 +28050,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF11x23F_Quote#0009</v>
+        <v>CHF11x23F_Quote#0000</v>
       </c>
       <c r="G39" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -28138,7 +28126,7 @@
       </c>
       <c r="F40" s="87" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CHF12x24F_Quote#0009</v>
+        <v>CHF12x24F_Quote#0000</v>
       </c>
       <c r="G40" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -28229,10 +28217,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z40">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28252,8 +28240,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I12" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T58"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -28340,7 +28328,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="103">
         <f>_xll.ohTrigger(Z5:Z58)</f>
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="161"/>
     </row>
@@ -28396,7 +28384,7 @@
       </c>
       <c r="O4" s="168" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:13:23</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="169" t="s">
         <v>147</v>
@@ -28686,10 +28674,10 @@
         <v>CHF1MOIS=ICAP</v>
       </c>
       <c r="P8" s="80">
-        <v>-0.41500000000000004</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="Q8" s="80">
-        <v>-0.38500000000000001</v>
+        <v>-0.375</v>
       </c>
       <c r="R8" s="80">
         <v>0</v>
@@ -28699,7 +28687,7 @@
       </c>
       <c r="T8" s="80">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="U8" s="80">
         <f t="shared" si="4"/>
@@ -28711,11 +28699,11 @@
       </c>
       <c r="X8" s="185"/>
       <c r="Y8" s="80">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="Z8" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999829E-5</v>
       </c>
       <c r="AA8" s="73"/>
     </row>
@@ -28758,10 +28746,10 @@
         <v>CHF2MOIS=ICAP</v>
       </c>
       <c r="P9" s="80">
-        <v>-0.44500000000000001</v>
+        <v>-0.44</v>
       </c>
       <c r="Q9" s="80">
-        <v>-0.41500000000000004</v>
+        <v>-0.41000000000000003</v>
       </c>
       <c r="R9" s="80">
         <v>0</v>
@@ -28771,7 +28759,7 @@
       </c>
       <c r="T9" s="80">
         <f t="shared" si="3"/>
-        <v>-0.43000000000000005</v>
+        <v>-0.42500000000000004</v>
       </c>
       <c r="U9" s="80">
         <f t="shared" si="4"/>
@@ -28783,11 +28771,11 @@
       </c>
       <c r="X9" s="185"/>
       <c r="Y9" s="80">
-        <v>-0.43000000000000005</v>
+        <v>-0.42500000000000004</v>
       </c>
       <c r="Z9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000000565E-5</v>
       </c>
       <c r="AA9" s="73"/>
     </row>
@@ -28859,7 +28847,7 @@
       </c>
       <c r="Z10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="AA10" s="73"/>
     </row>
@@ -29003,7 +28991,7 @@
       </c>
       <c r="Z12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="AA12" s="73"/>
     </row>
@@ -29075,7 +29063,7 @@
       </c>
       <c r="Z13" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000000565E-5</v>
       </c>
       <c r="AA13" s="73"/>
     </row>
@@ -29147,7 +29135,7 @@
       </c>
       <c r="Z14" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="AA14" s="73"/>
     </row>
@@ -29190,10 +29178,10 @@
         <v>CHF8MOIS=ICAP</v>
       </c>
       <c r="P15" s="80">
-        <v>-0.53</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="Q15" s="80">
-        <v>-0.5</v>
+        <v>-0.495</v>
       </c>
       <c r="R15" s="80">
         <v>0</v>
@@ -29203,7 +29191,7 @@
       </c>
       <c r="T15" s="80">
         <f t="shared" si="3"/>
-        <v>-0.51500000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="U15" s="80">
         <f t="shared" si="4"/>
@@ -29215,11 +29203,11 @@
       </c>
       <c r="X15" s="185"/>
       <c r="Y15" s="80">
-        <v>-0.51500000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="Z15" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA15" s="73"/>
     </row>
@@ -29262,10 +29250,10 @@
         <v>CHF9MOIS=ICAP</v>
       </c>
       <c r="P16" s="80">
-        <v>-0.53500000000000003</v>
+        <v>-0.53</v>
       </c>
       <c r="Q16" s="80">
-        <v>-0.505</v>
+        <v>-0.5</v>
       </c>
       <c r="R16" s="80">
         <v>0</v>
@@ -29275,7 +29263,7 @@
       </c>
       <c r="T16" s="80">
         <f t="shared" si="3"/>
-        <v>-0.52</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="U16" s="80">
         <f t="shared" si="4"/>
@@ -29287,11 +29275,11 @@
       </c>
       <c r="X16" s="185"/>
       <c r="Y16" s="80">
-        <v>-0.52</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="Z16" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="AA16" s="73"/>
     </row>
@@ -29334,10 +29322,10 @@
         <v>CHF10MOIS=ICAP</v>
       </c>
       <c r="P17" s="80">
-        <v>-0.53500000000000003</v>
+        <v>-0.53</v>
       </c>
       <c r="Q17" s="80">
-        <v>-0.505</v>
+        <v>-0.5</v>
       </c>
       <c r="R17" s="80">
         <v>0</v>
@@ -29347,7 +29335,7 @@
       </c>
       <c r="T17" s="80">
         <f t="shared" si="3"/>
-        <v>-0.52</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="U17" s="80">
         <f t="shared" si="4"/>
@@ -29359,11 +29347,11 @@
       </c>
       <c r="X17" s="185"/>
       <c r="Y17" s="80">
-        <v>-0.52</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="Z17" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA17" s="73"/>
     </row>
@@ -29406,10 +29394,10 @@
         <v>CHF11MOIS=ICAP</v>
       </c>
       <c r="P18" s="80">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="Q18" s="80">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="R18" s="80">
         <v>0</v>
@@ -29419,7 +29407,7 @@
       </c>
       <c r="T18" s="80">
         <f t="shared" si="3"/>
-        <v>-0.52500000000000002</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="U18" s="80">
         <f t="shared" si="4"/>
@@ -29431,11 +29419,11 @@
       </c>
       <c r="X18" s="185"/>
       <c r="Y18" s="80">
-        <v>-0.52500000000000002</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="Z18" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA18" s="73"/>
     </row>
@@ -29478,10 +29466,10 @@
         <v>CHF1YOIS=ICAP</v>
       </c>
       <c r="P19" s="80">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="Q19" s="80">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="R19" s="80">
         <v>0</v>
@@ -29491,7 +29479,7 @@
       </c>
       <c r="T19" s="80">
         <f t="shared" si="3"/>
-        <v>-0.52500000000000002</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="U19" s="80">
         <f t="shared" si="4"/>
@@ -29503,11 +29491,11 @@
       </c>
       <c r="X19" s="185"/>
       <c r="Y19" s="80">
-        <v>-0.52500000000000002</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="Z19" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA19" s="73"/>
     </row>
@@ -29694,10 +29682,10 @@
         <v>CHF15MOIS=ICAP</v>
       </c>
       <c r="P22" s="80">
-        <v>-0.53500000000000003</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="Q22" s="80">
-        <v>-0.505</v>
+        <v>-0.495</v>
       </c>
       <c r="R22" s="80">
         <v>0</v>
@@ -29707,7 +29695,7 @@
       </c>
       <c r="T22" s="80">
         <f t="shared" si="3"/>
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="U22" s="80">
         <f t="shared" si="4"/>
@@ -29719,11 +29707,11 @@
       </c>
       <c r="X22" s="185"/>
       <c r="Y22" s="80">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="Z22" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="AA22" s="73"/>
     </row>
@@ -29910,10 +29898,10 @@
         <v>CHF18MOIS=ICAP</v>
       </c>
       <c r="P25" s="80">
-        <v>-0.52500000000000002</v>
+        <v>-0.51</v>
       </c>
       <c r="Q25" s="80">
-        <v>-0.495</v>
+        <v>-0.48</v>
       </c>
       <c r="R25" s="80">
         <v>0</v>
@@ -29923,7 +29911,7 @@
       </c>
       <c r="T25" s="80">
         <f t="shared" si="3"/>
-        <v>-0.51</v>
+        <v>-0.495</v>
       </c>
       <c r="U25" s="80">
         <f t="shared" si="4"/>
@@ -29935,11 +29923,11 @@
       </c>
       <c r="X25" s="185"/>
       <c r="Y25" s="80">
-        <v>-0.51</v>
+        <v>-0.495</v>
       </c>
       <c r="Z25" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25/100,Trigger)</f>
-        <v>0</v>
+        <v>1.5000000000000083E-4</v>
       </c>
       <c r="AA25" s="73"/>
     </row>
@@ -30126,10 +30114,10 @@
         <v>CHF21MOIS=ICAP</v>
       </c>
       <c r="P28" s="80">
-        <v>-0.51500000000000001</v>
+        <v>-0.495</v>
       </c>
       <c r="Q28" s="80">
-        <v>-0.48499999999999999</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="R28" s="80">
         <v>0</v>
@@ -30139,11 +30127,11 @@
       </c>
       <c r="T28" s="80">
         <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <v>-0.48</v>
       </c>
       <c r="U28" s="80">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.9999999999999971E-2</v>
       </c>
       <c r="V28" s="185"/>
       <c r="W28" s="187">
@@ -30151,11 +30139,11 @@
       </c>
       <c r="X28" s="185"/>
       <c r="Y28" s="80">
-        <v>-0.5</v>
+        <v>-0.48</v>
       </c>
       <c r="Z28" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AA28" s="73"/>
     </row>
@@ -30342,10 +30330,10 @@
         <v>CHF2YOIS=ICAP</v>
       </c>
       <c r="P31" s="80">
-        <v>-0.495</v>
+        <v>-0.48</v>
       </c>
       <c r="Q31" s="80">
-        <v>-0.46500000000000002</v>
+        <v>-0.45</v>
       </c>
       <c r="R31" s="80">
         <v>0</v>
@@ -30355,7 +30343,7 @@
       </c>
       <c r="T31" s="80">
         <f t="shared" si="3"/>
-        <v>-0.48</v>
+        <v>-0.46499999999999997</v>
       </c>
       <c r="U31" s="80">
         <f t="shared" si="4"/>
@@ -30367,11 +30355,11 @@
       </c>
       <c r="X31" s="185"/>
       <c r="Y31" s="80">
-        <v>-0.48</v>
+        <v>-0.46499999999999997</v>
       </c>
       <c r="Z31" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA31" s="73"/>
     </row>
@@ -30630,10 +30618,10 @@
         <v>CHF3YOIS=ICAP</v>
       </c>
       <c r="P35" s="80">
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="Q35" s="80">
-        <v>-0.37</v>
+        <v>-0.35000000000000003</v>
       </c>
       <c r="R35" s="80">
         <v>0</v>
@@ -30643,11 +30631,11 @@
       </c>
       <c r="T35" s="80">
         <f t="shared" si="3"/>
-        <v>-0.41000000000000003</v>
+        <v>-0.39</v>
       </c>
       <c r="U35" s="80">
         <f t="shared" si="4"/>
-        <v>8.0000000000000016E-2</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="V35" s="185"/>
       <c r="W35" s="187">
@@ -30655,11 +30643,11 @@
       </c>
       <c r="X35" s="185"/>
       <c r="Y35" s="80">
-        <v>-0.41000000000000003</v>
+        <v>-0.39</v>
       </c>
       <c r="Z35" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35/100,Trigger)</f>
-        <v>0</v>
+        <v>1.5000000000000039E-4</v>
       </c>
       <c r="AA35" s="73"/>
     </row>
@@ -30918,10 +30906,10 @@
         <v>CHF4YOIS=ICAP</v>
       </c>
       <c r="P39" s="80">
-        <v>-0.36499999999999999</v>
+        <v>-0.34</v>
       </c>
       <c r="Q39" s="80">
-        <v>-0.28500000000000003</v>
+        <v>-0.26</v>
       </c>
       <c r="R39" s="80">
         <v>0</v>
@@ -30931,11 +30919,11 @@
       </c>
       <c r="T39" s="80">
         <f t="shared" si="3"/>
-        <v>-0.32500000000000001</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="U39" s="80">
         <f t="shared" si="4"/>
-        <v>7.999999999999996E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V39" s="185"/>
       <c r="W39" s="187">
@@ -30943,11 +30931,11 @@
       </c>
       <c r="X39" s="185"/>
       <c r="Y39" s="80">
-        <v>-0.32500000000000001</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="Z39" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F39,Y39/100,Trigger)</f>
-        <v>4.9999999999999264E-5</v>
+        <v>1.4999999999999953E-4</v>
       </c>
       <c r="AA39" s="73"/>
     </row>
@@ -31206,10 +31194,10 @@
         <v>CHF5YOIS=ICAP</v>
       </c>
       <c r="P43" s="80">
-        <v>-0.27</v>
+        <v>-0.245</v>
       </c>
       <c r="Q43" s="80">
-        <v>-0.19</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="R43" s="80">
         <v>0</v>
@@ -31219,11 +31207,11 @@
       </c>
       <c r="T43" s="80">
         <f t="shared" si="3"/>
-        <v>-0.23</v>
+        <v>-0.20500000000000002</v>
       </c>
       <c r="U43" s="80">
         <f t="shared" si="4"/>
-        <v>8.0000000000000016E-2</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="V43" s="185"/>
       <c r="W43" s="187">
@@ -31231,11 +31219,11 @@
       </c>
       <c r="X43" s="185"/>
       <c r="Y43" s="80">
-        <v>-0.23</v>
+        <v>-0.20500000000000002</v>
       </c>
       <c r="Z43" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F43,Y43/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA43" s="73"/>
     </row>
@@ -31278,10 +31266,10 @@
         <v>CHF6YOIS=ICAP</v>
       </c>
       <c r="P44" s="80">
-        <v>-0.17500000000000002</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="Q44" s="80">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="R44" s="80">
         <v>0</v>
@@ -31291,7 +31279,7 @@
       </c>
       <c r="T44" s="80">
         <f t="shared" si="3"/>
-        <v>-0.13500000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="U44" s="80">
         <f t="shared" si="4"/>
@@ -31303,11 +31291,11 @@
       </c>
       <c r="X44" s="185"/>
       <c r="Y44" s="80">
-        <v>-0.13500000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="Z44" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F44,Y44/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AA44" s="73"/>
     </row>
@@ -31350,10 +31338,10 @@
         <v>CHF7YOIS=ICAP</v>
       </c>
       <c r="P45" s="80">
-        <v>-8.5000000000000006E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="Q45" s="80">
-        <v>-5.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="R45" s="80">
         <v>0</v>
@@ -31363,7 +31351,7 @@
       </c>
       <c r="T45" s="80">
         <f t="shared" si="3"/>
-        <v>-4.5000000000000005E-2</v>
+        <v>-4.9999999999999975E-3</v>
       </c>
       <c r="U45" s="80">
         <f t="shared" si="4"/>
@@ -31375,11 +31363,11 @@
       </c>
       <c r="X45" s="185"/>
       <c r="Y45" s="80">
-        <v>-4.5000000000000005E-2</v>
+        <v>-4.9999999999999975E-3</v>
       </c>
       <c r="Z45" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F45,Y45/100,Trigger)</f>
-        <v>4.9999999999999969E-5</v>
+        <v>2.0000000000000004E-4</v>
       </c>
       <c r="AA45" s="73"/>
     </row>
@@ -31422,10 +31410,10 @@
         <v>CHF8YOIS=ICAP</v>
       </c>
       <c r="P46" s="80">
-        <v>-5.0000000000000001E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q46" s="80">
-        <v>7.4999999999999997E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R46" s="80">
         <v>0</v>
@@ -31435,7 +31423,7 @@
       </c>
       <c r="T46" s="80">
         <f t="shared" si="3"/>
-        <v>3.4999999999999996E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="U46" s="80">
         <f t="shared" si="4"/>
@@ -31447,11 +31435,11 @@
       </c>
       <c r="X46" s="185"/>
       <c r="Y46" s="80">
-        <v>3.4999999999999996E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="Z46" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F46,Y46/100,Trigger)</f>
-        <v>0</v>
+        <v>2.499999999999999E-4</v>
       </c>
       <c r="AA46" s="73"/>
     </row>
@@ -31494,10 +31482,10 @@
         <v>CHF9YOIS=ICAP</v>
       </c>
       <c r="P47" s="80">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="Q47" s="80">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="R47" s="80">
         <v>0</v>
@@ -31507,11 +31495,11 @@
       </c>
       <c r="T47" s="80">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="U47" s="80">
         <f t="shared" si="4"/>
-        <v>7.9999999999999988E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V47" s="185"/>
       <c r="W47" s="187">
@@ -31519,11 +31507,11 @@
       </c>
       <c r="X47" s="185"/>
       <c r="Y47" s="80">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="Z47" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F47,Y47/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="AA47" s="73"/>
     </row>
@@ -31566,10 +31554,10 @@
         <v>CHF10YOIS=ICAP</v>
       </c>
       <c r="P48" s="80">
-        <v>0.13</v>
+        <v>0.185</v>
       </c>
       <c r="Q48" s="80">
-        <v>0.21</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="R48" s="80">
         <v>0</v>
@@ -31579,11 +31567,11 @@
       </c>
       <c r="T48" s="80">
         <f t="shared" si="3"/>
-        <v>0.16999999999999998</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="U48" s="80">
         <f t="shared" si="4"/>
-        <v>7.9999999999999988E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V48" s="185"/>
       <c r="W48" s="187">
@@ -31591,11 +31579,11 @@
       </c>
       <c r="X48" s="185"/>
       <c r="Y48" s="80">
-        <v>0.16999999999999998</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="Z48" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F48,Y48/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA48" s="73"/>
     </row>
@@ -31638,10 +31626,10 @@
         <v>CHF12YOIS=ICAP</v>
       </c>
       <c r="P49" s="80">
-        <v>0.22500000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q49" s="80">
-        <v>0.32500000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="R49" s="80">
         <v>0</v>
@@ -31651,11 +31639,11 @@
       </c>
       <c r="T49" s="80">
         <f t="shared" si="3"/>
-        <v>0.27500000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="U49" s="80">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="V49" s="185"/>
       <c r="W49" s="187">
@@ -31663,11 +31651,11 @@
       </c>
       <c r="X49" s="185"/>
       <c r="Y49" s="80">
-        <v>0.27500000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="Z49" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F49,Y49/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA49" s="73"/>
     </row>
@@ -31710,10 +31698,10 @@
         <v>CHF15YOIS=ICAP</v>
       </c>
       <c r="P50" s="80">
-        <v>0.34500000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="Q50" s="80">
-        <v>0.44500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="R50" s="80">
         <v>0</v>
@@ -31723,7 +31711,7 @@
       </c>
       <c r="T50" s="80">
         <f t="shared" si="3"/>
-        <v>0.39500000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="U50" s="80">
         <f t="shared" si="4"/>
@@ -31735,11 +31723,11 @@
       </c>
       <c r="X50" s="185"/>
       <c r="Y50" s="80">
-        <v>0.39500000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="Z50" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F50,Y50/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA50" s="73"/>
     </row>
@@ -31782,10 +31770,10 @@
         <v>CHF20YOIS=ICAP</v>
       </c>
       <c r="P51" s="80">
-        <v>0.47000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="Q51" s="80">
-        <v>0.57000000000000006</v>
+        <v>0.63</v>
       </c>
       <c r="R51" s="80">
         <v>0</v>
@@ -31795,11 +31783,11 @@
       </c>
       <c r="T51" s="80">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="U51" s="80">
         <f t="shared" si="4"/>
-        <v>0.10000000000000003</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="V51" s="185"/>
       <c r="W51" s="187">
@@ -31807,11 +31795,11 @@
       </c>
       <c r="X51" s="185"/>
       <c r="Y51" s="80">
-        <v>0.52</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="Z51" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F51,Y51/100,Trigger)</f>
-        <v>4.9999999999999697E-5</v>
+        <v>2.5000000000000109E-4</v>
       </c>
       <c r="AA51" s="73"/>
     </row>
@@ -31854,10 +31842,10 @@
         <v>CHF25YOIS=ICAP</v>
       </c>
       <c r="P52" s="80">
-        <v>0.54500000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="Q52" s="80">
-        <v>0.64500000000000002</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="R52" s="80">
         <v>0</v>
@@ -31867,7 +31855,7 @@
       </c>
       <c r="T52" s="80">
         <f t="shared" si="3"/>
-        <v>0.59499999999999997</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="U52" s="80">
         <f t="shared" si="4"/>
@@ -31879,11 +31867,11 @@
       </c>
       <c r="X52" s="185"/>
       <c r="Y52" s="80">
-        <v>0.59499999999999997</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="Z52" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F52,Y52/100,Trigger)</f>
-        <v>4.999999999999883E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA52" s="73"/>
     </row>
@@ -31998,10 +31986,10 @@
         <v>CHF30YOIS=ICAP</v>
       </c>
       <c r="P54" s="80">
-        <v>0.57999999999999996</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="Q54" s="80">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="R54" s="80">
         <v>0</v>
@@ -32011,11 +31999,11 @@
       </c>
       <c r="T54" s="80">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="U54" s="80">
         <f t="shared" si="4"/>
-        <v>0.10000000000000009</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="V54" s="185"/>
       <c r="W54" s="187">
@@ -32023,11 +32011,11 @@
       </c>
       <c r="X54" s="185"/>
       <c r="Y54" s="80">
-        <v>0.63</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="Z54" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F54,Y54/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000109E-4</v>
       </c>
       <c r="AA54" s="73"/>
     </row>
@@ -32349,10 +32337,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z58">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32373,7 +32361,7 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -32481,7 +32469,7 @@
       <c r="AC2" s="52"/>
       <c r="AD2" s="103">
         <f>_xll.ohTrigger(AD5:AD46)</f>
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="296"/>
     </row>
@@ -32574,7 +32562,7 @@
       </c>
       <c r="R4" s="168" t="str">
         <f>_xll.RData(R5:R46,S4:W4,"RTFEED:IDN",ReutersRtMode,,S5)</f>
-        <v>Updated at 12:12:01</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="S4" s="169" t="s">
         <v>164</v>
@@ -32637,7 +32625,7 @@
       </c>
       <c r="I5" s="309" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H5,IborIndex,D5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(AD5),ISERROR(FuturesHWConvAdj!U5:U6)),ObjectOverwrite)</f>
-        <v>CHFFUT3MK5ConvAdj_Quote#0123</v>
+        <v>CHFFUT3MK5ConvAdj_Quote#0002</v>
       </c>
       <c r="J5" s="250" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -32730,7 +32718,7 @@
       </c>
       <c r="I6" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H6,IborIndex,D6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(AD6),ISERROR(FuturesHWConvAdj!U6:U7)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM5ConvAdj_Quote#0123</v>
+        <v>CHFFUT3MM5ConvAdj_Quote#0002</v>
       </c>
       <c r="J6" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -32763,7 +32751,7 @@
         <v>100.83</v>
       </c>
       <c r="V6" s="80">
-        <v>100.82000000000001</v>
+        <v>100.83</v>
       </c>
       <c r="W6" s="80">
         <v>100.83</v>
@@ -32786,7 +32774,7 @@
       </c>
       <c r="AD6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,AC6,Trigger)</f>
-        <v>0</v>
+        <v>100.825</v>
       </c>
       <c r="AE6" s="47"/>
     </row>
@@ -32819,7 +32807,7 @@
       </c>
       <c r="I7" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H7,IborIndex,D7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(AD7),ISERROR(FuturesHWConvAdj!U7:U8)),ObjectOverwrite)</f>
-        <v>CHFFUT3MN5ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MN5ConvAdj_Quote#0001</v>
       </c>
       <c r="J7" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -32908,7 +32896,7 @@
       </c>
       <c r="I8" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H8,IborIndex,D8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(AD8),ISERROR(FuturesHWConvAdj!U8:U9)),ObjectOverwrite)</f>
-        <v>CHFFUT3MQ5ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MQ5ConvAdj_Quote#0001</v>
       </c>
       <c r="J8" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -32997,7 +32985,7 @@
       </c>
       <c r="I9" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H9,IborIndex,D9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(AD9),ISERROR(FuturesHWConvAdj!U9:U10)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU5ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU5ConvAdj_Quote#0001</v>
       </c>
       <c r="J9" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -33025,24 +33013,24 @@
         <v>42261</v>
       </c>
       <c r="T9" s="80">
+        <v>100.83</v>
+      </c>
+      <c r="U9" s="80">
         <v>100.84</v>
       </c>
-      <c r="U9" s="80">
-        <v>100.86</v>
-      </c>
       <c r="V9" s="80">
-        <v>100.85000000000001</v>
+        <v>100.84</v>
       </c>
       <c r="W9" s="80">
         <v>100.85000000000001</v>
       </c>
       <c r="X9" s="80">
         <f t="array" ref="X9">IF(ISERROR(AVERAGE(T9,U9)),#NUM!,AVERAGE(T9,U9))</f>
-        <v>100.85</v>
+        <v>100.83500000000001</v>
       </c>
       <c r="Y9" s="80">
         <f t="shared" si="2"/>
-        <v>1.9999999999996021E-2</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="Z9" s="306"/>
       <c r="AA9" s="320">
@@ -33050,11 +33038,11 @@
       </c>
       <c r="AB9" s="306"/>
       <c r="AC9" s="80">
-        <v>100.85</v>
+        <v>100.83500000000001</v>
       </c>
       <c r="AD9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,AC9,Trigger)</f>
-        <v>-5.0000000000096634E-3</v>
+        <v>100.83500000000001</v>
       </c>
       <c r="AE9" s="47"/>
     </row>
@@ -33087,7 +33075,7 @@
       </c>
       <c r="I10" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H10,IborIndex,D10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(AD10),ISERROR(FuturesHWConvAdj!U10:U11)),ObjectOverwrite)</f>
-        <v>CHFFUT3MV5ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MV5ConvAdj_Quote#0001</v>
       </c>
       <c r="J10" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -33176,7 +33164,7 @@
       </c>
       <c r="I11" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H11,IborIndex,D11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(AD11),ISERROR(FuturesHWConvAdj!U11:U12)),ObjectOverwrite)</f>
-        <v>CHFFUT3MX5ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MX5ConvAdj_Quote#0001</v>
       </c>
       <c r="J11" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -33265,7 +33253,7 @@
       </c>
       <c r="I12" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H12,IborIndex,D12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(AD12),ISERROR(FuturesHWConvAdj!U12:U13)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ5ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="J12" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -33292,24 +33280,24 @@
         <v>42352</v>
       </c>
       <c r="T12" s="80">
+        <v>100.81</v>
+      </c>
+      <c r="U12" s="80">
         <v>100.82000000000001</v>
       </c>
-      <c r="U12" s="80">
-        <v>100.83</v>
-      </c>
       <c r="V12" s="80">
-        <v>100.83</v>
+        <v>100.81</v>
       </c>
       <c r="W12" s="80">
-        <v>100.83</v>
+        <v>100.82000000000001</v>
       </c>
       <c r="X12" s="80">
         <f t="array" ref="X12">IF(ISERROR(AVERAGE(T12,U12)),#NUM!,AVERAGE(T12,U12))</f>
-        <v>100.825</v>
+        <v>100.815</v>
       </c>
       <c r="Y12" s="80">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="Z12" s="306"/>
       <c r="AA12" s="320">
@@ -33317,11 +33305,11 @@
       </c>
       <c r="AB12" s="306"/>
       <c r="AC12" s="80">
-        <v>100.825</v>
+        <v>100.815</v>
       </c>
       <c r="AD12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,AC12,Trigger)</f>
-        <v>0</v>
+        <v>100.815</v>
       </c>
       <c r="AE12" s="47"/>
     </row>
@@ -33354,7 +33342,7 @@
       </c>
       <c r="I13" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H13,IborIndex,D13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(AD13),ISERROR(FuturesHWConvAdj!U13:U14)),ObjectOverwrite)</f>
-        <v>CHFFUT3MF6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MF6ConvAdj_Quote#0001</v>
       </c>
       <c r="J13" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -33443,7 +33431,7 @@
       </c>
       <c r="I14" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H14,IborIndex,D14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(AD14),ISERROR(FuturesHWConvAdj!U14:U15)),ObjectOverwrite)</f>
-        <v>CHFFUT3MG6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MG6ConvAdj_Quote#0001</v>
       </c>
       <c r="J14" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -33532,7 +33520,7 @@
       </c>
       <c r="I15" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H15,IborIndex,D15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(AD15),ISERROR(FuturesHWConvAdj!U15:U16)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH6ConvAdj_Quote#0001</v>
       </c>
       <c r="J15" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -33559,20 +33547,20 @@
         <v>42443</v>
       </c>
       <c r="T15" s="80">
-        <v>100.78</v>
+        <v>100.75</v>
       </c>
       <c r="U15" s="80">
-        <v>100.79</v>
+        <v>100.76</v>
       </c>
       <c r="V15" s="80">
-        <v>100.79</v>
+        <v>100.76</v>
       </c>
       <c r="W15" s="80">
-        <v>100.78</v>
+        <v>100.77</v>
       </c>
       <c r="X15" s="80">
         <f t="array" ref="X15">IF(ISERROR(AVERAGE(T15,U15)),#NUM!,AVERAGE(T15,U15))</f>
-        <v>100.785</v>
+        <v>100.755</v>
       </c>
       <c r="Y15" s="80">
         <f t="shared" si="2"/>
@@ -33584,11 +33572,11 @@
       </c>
       <c r="AB15" s="306"/>
       <c r="AC15" s="80">
-        <v>100.785</v>
+        <v>100.755</v>
       </c>
       <c r="AD15" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F15,AC15,Trigger)</f>
-        <v>0</v>
+        <v>100.755</v>
       </c>
       <c r="AE15" s="47"/>
     </row>
@@ -33621,7 +33609,7 @@
       </c>
       <c r="I16" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H16,IborIndex,D16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(AD16),ISERROR(FuturesHWConvAdj!U16:U17)),ObjectOverwrite)</f>
-        <v>CHFFUT3MJ6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MJ6ConvAdj_Quote#0001</v>
       </c>
       <c r="J16" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -33710,7 +33698,7 @@
       </c>
       <c r="I17" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H17,IborIndex,D17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(AD17),ISERROR(FuturesHWConvAdj!U17:U18)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM6ConvAdj_Quote#0001</v>
       </c>
       <c r="J17" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -33737,24 +33725,24 @@
         <v>42534</v>
       </c>
       <c r="T17" s="80">
-        <v>100.72</v>
+        <v>100.69</v>
       </c>
       <c r="U17" s="80">
-        <v>100.73</v>
+        <v>100.71000000000001</v>
       </c>
       <c r="V17" s="80">
-        <v>100.72</v>
+        <v>100.7</v>
       </c>
       <c r="W17" s="80">
-        <v>100.72</v>
+        <v>100.71000000000001</v>
       </c>
       <c r="X17" s="80">
         <f t="array" ref="X17">IF(ISERROR(AVERAGE(T17,U17)),#NUM!,AVERAGE(T17,U17))</f>
-        <v>100.72499999999999</v>
+        <v>100.7</v>
       </c>
       <c r="Y17" s="80">
         <f t="shared" si="2"/>
-        <v>1.0000000000005116E-2</v>
+        <v>2.0000000000010232E-2</v>
       </c>
       <c r="Z17" s="306"/>
       <c r="AA17" s="320">
@@ -33762,11 +33750,11 @@
       </c>
       <c r="AB17" s="306"/>
       <c r="AC17" s="80">
-        <v>100.72499999999999</v>
+        <v>100.7</v>
       </c>
       <c r="AD17" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F17,AC17,Trigger)</f>
-        <v>0</v>
+        <v>100.7</v>
       </c>
       <c r="AE17" s="47"/>
     </row>
@@ -33799,7 +33787,7 @@
       </c>
       <c r="I18" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H18,IborIndex,D18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(AD18),ISERROR(FuturesHWConvAdj!U18:U19)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU6ConvAdj_Quote#0001</v>
       </c>
       <c r="J18" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -33826,20 +33814,20 @@
         <v>42632</v>
       </c>
       <c r="T18" s="80">
-        <v>100.66</v>
+        <v>100.63</v>
       </c>
       <c r="U18" s="80">
-        <v>100.67</v>
+        <v>100.64</v>
       </c>
       <c r="V18" s="80">
-        <v>100.67</v>
+        <v>100.64</v>
       </c>
       <c r="W18" s="80">
-        <v>100.66</v>
+        <v>100.65</v>
       </c>
       <c r="X18" s="80">
         <f t="array" ref="X18">IF(ISERROR(AVERAGE(T18,U18)),#NUM!,AVERAGE(T18,U18))</f>
-        <v>100.66499999999999</v>
+        <v>100.63499999999999</v>
       </c>
       <c r="Y18" s="80">
         <f t="shared" si="2"/>
@@ -33851,11 +33839,11 @@
       </c>
       <c r="AB18" s="306"/>
       <c r="AC18" s="80">
-        <v>100.66499999999999</v>
+        <v>100.63499999999999</v>
       </c>
       <c r="AD18" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F18,AC18,Trigger)</f>
-        <v>0</v>
+        <v>100.63499999999999</v>
       </c>
       <c r="AE18" s="47"/>
     </row>
@@ -33888,7 +33876,7 @@
       </c>
       <c r="I19" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H19,IborIndex,D19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(AD19),ISERROR(FuturesHWConvAdj!U19:U20)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ6ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="J19" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -33915,24 +33903,24 @@
         <v>42723</v>
       </c>
       <c r="T19" s="80">
-        <v>100.60000000000001</v>
+        <v>100.57000000000001</v>
       </c>
       <c r="U19" s="80">
-        <v>100.62</v>
+        <v>100.58</v>
       </c>
       <c r="V19" s="80">
-        <v>100.61</v>
+        <v>100.58</v>
       </c>
       <c r="W19" s="80">
-        <v>100.61</v>
+        <v>100.59</v>
       </c>
       <c r="X19" s="80">
         <f t="array" ref="X19">IF(ISERROR(AVERAGE(T19,U19)),#NUM!,AVERAGE(T19,U19))</f>
-        <v>100.61000000000001</v>
+        <v>100.575</v>
       </c>
       <c r="Y19" s="80">
         <f t="shared" si="2"/>
-        <v>1.9999999999996021E-2</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="Z19" s="306"/>
       <c r="AA19" s="320">
@@ -33940,11 +33928,11 @@
       </c>
       <c r="AB19" s="306"/>
       <c r="AC19" s="80">
-        <v>100.61000000000001</v>
+        <v>100.575</v>
       </c>
       <c r="AD19" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F19,AC19,Trigger)</f>
-        <v>0</v>
+        <v>100.575</v>
       </c>
       <c r="AE19" s="47"/>
     </row>
@@ -33977,7 +33965,7 @@
       </c>
       <c r="I20" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H20,IborIndex,D20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(AD20),ISERROR(FuturesHWConvAdj!U20:U21)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH7ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH7ConvAdj_Quote#0001</v>
       </c>
       <c r="J20" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -34004,20 +33992,20 @@
         <v>42807</v>
       </c>
       <c r="T20" s="80">
-        <v>100.54</v>
+        <v>100.51</v>
       </c>
       <c r="U20" s="80">
-        <v>100.55</v>
+        <v>100.52</v>
       </c>
       <c r="V20" s="80">
-        <v>100.54</v>
+        <v>100.51</v>
       </c>
       <c r="W20" s="80">
-        <v>100.55</v>
+        <v>100.53</v>
       </c>
       <c r="X20" s="80">
         <f t="array" ref="X20">IF(ISERROR(AVERAGE(T20,U20)),#NUM!,AVERAGE(T20,U20))</f>
-        <v>100.545</v>
+        <v>100.515</v>
       </c>
       <c r="Y20" s="80">
         <f t="shared" si="2"/>
@@ -34029,11 +34017,11 @@
       </c>
       <c r="AB20" s="306"/>
       <c r="AC20" s="80">
-        <v>100.545</v>
+        <v>100.515</v>
       </c>
       <c r="AD20" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F20,AC20,Trigger)</f>
-        <v>0</v>
+        <v>100.515</v>
       </c>
       <c r="AE20" s="47"/>
     </row>
@@ -34066,7 +34054,7 @@
       </c>
       <c r="I21" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H21,IborIndex,D21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(AD21),ISERROR(FuturesHWConvAdj!U21:U22)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM7ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM7ConvAdj_Quote#0001</v>
       </c>
       <c r="J21" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -34093,20 +34081,20 @@
         <v>42905</v>
       </c>
       <c r="T21" s="80">
+        <v>100.43</v>
+      </c>
+      <c r="U21" s="80">
+        <v>100.45</v>
+      </c>
+      <c r="V21" s="80">
+        <v>100.44</v>
+      </c>
+      <c r="W21" s="80">
         <v>100.46000000000001</v>
-      </c>
-      <c r="U21" s="80">
-        <v>100.48</v>
-      </c>
-      <c r="V21" s="80">
-        <v>100.47</v>
-      </c>
-      <c r="W21" s="80">
-        <v>100.48</v>
       </c>
       <c r="X21" s="80">
         <f t="array" ref="X21">IF(ISERROR(AVERAGE(T21,U21)),#NUM!,AVERAGE(T21,U21))</f>
-        <v>100.47</v>
+        <v>100.44</v>
       </c>
       <c r="Y21" s="80">
         <f t="shared" si="2"/>
@@ -34118,11 +34106,11 @@
       </c>
       <c r="AB21" s="306"/>
       <c r="AC21" s="80">
-        <v>100.47</v>
+        <v>100.44</v>
       </c>
       <c r="AD21" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F21,AC21,Trigger)</f>
-        <v>0</v>
+        <v>100.44</v>
       </c>
       <c r="AE21" s="47"/>
     </row>
@@ -34155,7 +34143,7 @@
       </c>
       <c r="I22" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H22,IborIndex,D22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(AD22),ISERROR(FuturesHWConvAdj!U22:U23)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU7ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU7ConvAdj_Quote#0001</v>
       </c>
       <c r="J22" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -34182,24 +34170,24 @@
         <v>42996</v>
       </c>
       <c r="T22" s="80">
+        <v>100.35000000000001</v>
+      </c>
+      <c r="U22" s="80">
         <v>100.38</v>
       </c>
-      <c r="U22" s="80">
-        <v>100.41</v>
-      </c>
       <c r="V22" s="80">
-        <v>100.4</v>
+        <v>100.37</v>
       </c>
       <c r="W22" s="80">
-        <v>100.41</v>
+        <v>100.39</v>
       </c>
       <c r="X22" s="80">
         <f t="array" ref="X22">IF(ISERROR(AVERAGE(T22,U22)),#NUM!,AVERAGE(T22,U22))</f>
-        <v>100.395</v>
+        <v>100.36500000000001</v>
       </c>
       <c r="Y22" s="80">
         <f t="shared" si="2"/>
-        <v>3.0000000000001137E-2</v>
+        <v>2.9999999999986926E-2</v>
       </c>
       <c r="Z22" s="306"/>
       <c r="AA22" s="320">
@@ -34207,11 +34195,11 @@
       </c>
       <c r="AB22" s="306"/>
       <c r="AC22" s="80">
-        <v>100.395</v>
+        <v>100.36500000000001</v>
       </c>
       <c r="AD22" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F22,AC22,Trigger)</f>
-        <v>0</v>
+        <v>100.36500000000001</v>
       </c>
       <c r="AE22" s="47"/>
     </row>
@@ -34244,7 +34232,7 @@
       </c>
       <c r="I23" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H23,IborIndex,D23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(AD23),ISERROR(FuturesHWConvAdj!U23:U24)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ7ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="J23" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -34271,20 +34259,20 @@
         <v>43087</v>
       </c>
       <c r="T23" s="80">
-        <v>100.28</v>
+        <v>100.25</v>
       </c>
       <c r="U23" s="80">
-        <v>100.33</v>
+        <v>100.3</v>
       </c>
       <c r="V23" s="80">
-        <v>100.32000000000001</v>
+        <v>100.29</v>
       </c>
       <c r="W23" s="80">
-        <v>100.33</v>
+        <v>100.31</v>
       </c>
       <c r="X23" s="80">
         <f t="array" ref="X23">IF(ISERROR(AVERAGE(T23,U23)),#NUM!,AVERAGE(T23,U23))</f>
-        <v>100.30500000000001</v>
+        <v>100.27500000000001</v>
       </c>
       <c r="Y23" s="80">
         <f t="shared" si="2"/>
@@ -34296,11 +34284,11 @@
       </c>
       <c r="AB23" s="306"/>
       <c r="AC23" s="80">
-        <v>100.30500000000001</v>
+        <v>100.27500000000001</v>
       </c>
       <c r="AD23" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F23,AC23,Trigger)</f>
-        <v>0</v>
+        <v>100.27500000000001</v>
       </c>
       <c r="AE23" s="47"/>
     </row>
@@ -34333,7 +34321,7 @@
       </c>
       <c r="I24" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H24,IborIndex,D24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(AD24),ISERROR(FuturesHWConvAdj!U24:U25)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH8ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH8ConvAdj_Quote#0001</v>
       </c>
       <c r="J24" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -34360,20 +34348,20 @@
         <v>43178</v>
       </c>
       <c r="T24" s="80">
-        <v>100.18</v>
+        <v>100.15</v>
       </c>
       <c r="U24" s="80">
-        <v>100.25</v>
+        <v>100.22</v>
       </c>
       <c r="V24" s="80">
         <v>0</v>
       </c>
       <c r="W24" s="80">
-        <v>100.24000000000001</v>
+        <v>100.22</v>
       </c>
       <c r="X24" s="80">
         <f t="array" ref="X24">IF(ISERROR(AVERAGE(T24,U24)),#NUM!,AVERAGE(T24,U24))</f>
-        <v>100.215</v>
+        <v>100.185</v>
       </c>
       <c r="Y24" s="80">
         <f t="shared" si="2"/>
@@ -34385,11 +34373,11 @@
       </c>
       <c r="AB24" s="306"/>
       <c r="AC24" s="80">
-        <v>100.215</v>
+        <v>100.185</v>
       </c>
       <c r="AD24" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F24,AC24,Trigger)</f>
-        <v>0</v>
+        <v>100.185</v>
       </c>
       <c r="AE24" s="47"/>
     </row>
@@ -34422,7 +34410,7 @@
       </c>
       <c r="I25" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H25,IborIndex,D25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(AD25),ISERROR(FuturesHWConvAdj!U25:U26)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM8ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM8ConvAdj_Quote#0001</v>
       </c>
       <c r="J25" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -34449,24 +34437,24 @@
         <v>43269</v>
       </c>
       <c r="T25" s="80">
-        <v>100.06</v>
+        <v>100.02</v>
       </c>
       <c r="U25" s="80">
-        <v>100.17</v>
+        <v>100.14</v>
       </c>
       <c r="V25" s="80">
         <v>0</v>
       </c>
       <c r="W25" s="80">
-        <v>100.15</v>
+        <v>100.13</v>
       </c>
       <c r="X25" s="80">
         <f t="array" ref="X25">IF(ISERROR(AVERAGE(T25,U25)),#NUM!,AVERAGE(T25,U25))</f>
-        <v>100.11500000000001</v>
+        <v>100.08</v>
       </c>
       <c r="Y25" s="80">
         <f t="shared" si="2"/>
-        <v>0.10999999999999943</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="Z25" s="306"/>
       <c r="AA25" s="320">
@@ -34474,11 +34462,11 @@
       </c>
       <c r="AB25" s="306"/>
       <c r="AC25" s="80">
-        <v>100.11500000000001</v>
+        <v>100.08</v>
       </c>
       <c r="AD25" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F25,AC25,Trigger)</f>
-        <v>0</v>
+        <v>100.08</v>
       </c>
       <c r="AE25" s="47"/>
     </row>
@@ -34511,7 +34499,7 @@
       </c>
       <c r="I26" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H26,IborIndex,D26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(AD26),ISERROR(FuturesHWConvAdj!U26:U27)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU8ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU8ConvAdj_Quote#0001</v>
       </c>
       <c r="J26" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -34541,21 +34529,21 @@
         <v>0</v>
       </c>
       <c r="U26" s="80">
-        <v>100.09</v>
+        <v>100.06</v>
       </c>
       <c r="V26" s="80">
         <v>0</v>
       </c>
       <c r="W26" s="80">
-        <v>100.07000000000001</v>
+        <v>100.05</v>
       </c>
       <c r="X26" s="80">
         <f t="array" ref="X26">IF(ISERROR(AVERAGE(T26,U26)),#NUM!,AVERAGE(T26,U26))</f>
-        <v>50.045000000000002</v>
+        <v>50.03</v>
       </c>
       <c r="Y26" s="80">
         <f t="shared" si="2"/>
-        <v>100.09</v>
+        <v>100.06</v>
       </c>
       <c r="Z26" s="306"/>
       <c r="AA26" s="320" t="e">
@@ -34563,11 +34551,11 @@
       </c>
       <c r="AB26" s="306"/>
       <c r="AC26" s="80">
-        <v>50.045000000000002</v>
+        <v>50.03</v>
       </c>
       <c r="AD26" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F26,AC26,Trigger)</f>
-        <v>0</v>
+        <v>50.03</v>
       </c>
       <c r="AE26" s="47"/>
     </row>
@@ -34600,7 +34588,7 @@
       </c>
       <c r="I27" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H27,IborIndex,D27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(AD27),ISERROR(FuturesHWConvAdj!U27:U28)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ8ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="J27" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -34630,21 +34618,21 @@
         <v>0</v>
       </c>
       <c r="U27" s="80">
-        <v>100.08</v>
+        <v>100.05</v>
       </c>
       <c r="V27" s="80">
         <v>0</v>
       </c>
       <c r="W27" s="80">
-        <v>100.04</v>
+        <v>100.02</v>
       </c>
       <c r="X27" s="80">
         <f t="array" ref="X27">IF(ISERROR(AVERAGE(T27,U27)),#NUM!,AVERAGE(T27,U27))</f>
-        <v>50.04</v>
+        <v>50.024999999999999</v>
       </c>
       <c r="Y27" s="80">
         <f t="shared" si="2"/>
-        <v>100.08</v>
+        <v>100.05</v>
       </c>
       <c r="Z27" s="306"/>
       <c r="AA27" s="320" t="e">
@@ -34652,11 +34640,11 @@
       </c>
       <c r="AB27" s="306"/>
       <c r="AC27" s="80">
-        <v>50.04</v>
+        <v>50.024999999999999</v>
       </c>
       <c r="AD27" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F27,AC27,Trigger)</f>
-        <v>0</v>
+        <v>50.024999999999999</v>
       </c>
       <c r="AE27" s="47"/>
     </row>
@@ -34689,7 +34677,7 @@
       </c>
       <c r="I28" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H28,IborIndex,D28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(AD28),ISERROR(FuturesHWConvAdj!U28:U29)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH9ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH9ConvAdj_Quote#0001</v>
       </c>
       <c r="J28" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -34719,21 +34707,21 @@
         <v>0</v>
       </c>
       <c r="U28" s="80">
-        <v>100.08</v>
+        <v>100.05</v>
       </c>
       <c r="V28" s="80">
         <v>0</v>
       </c>
       <c r="W28" s="80">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="X28" s="80">
         <f t="array" ref="X28">IF(ISERROR(AVERAGE(T28,U28)),#NUM!,AVERAGE(T28,U28))</f>
-        <v>50.04</v>
+        <v>50.024999999999999</v>
       </c>
       <c r="Y28" s="80">
         <f t="shared" si="2"/>
-        <v>100.08</v>
+        <v>100.05</v>
       </c>
       <c r="Z28" s="306"/>
       <c r="AA28" s="320" t="e">
@@ -34741,11 +34729,11 @@
       </c>
       <c r="AB28" s="306"/>
       <c r="AC28" s="80">
-        <v>50.04</v>
+        <v>50.024999999999999</v>
       </c>
       <c r="AD28" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F28,AC28,Trigger)</f>
-        <v>0</v>
+        <v>50.024999999999999</v>
       </c>
       <c r="AE28" s="47"/>
     </row>
@@ -34778,7 +34766,7 @@
       </c>
       <c r="I29" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H29,IborIndex,D29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(AD29),ISERROR(FuturesHWConvAdj!U29:U30)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM9ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM9ConvAdj_Quote#0001</v>
       </c>
       <c r="J29" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -34808,21 +34796,21 @@
         <v>0</v>
       </c>
       <c r="U29" s="80">
-        <v>100.09</v>
+        <v>100.06</v>
       </c>
       <c r="V29" s="80">
         <v>0</v>
       </c>
       <c r="W29" s="80">
-        <v>100.01</v>
+        <v>99.990000000000009</v>
       </c>
       <c r="X29" s="80">
         <f t="array" ref="X29">IF(ISERROR(AVERAGE(T29,U29)),#NUM!,AVERAGE(T29,U29))</f>
-        <v>50.045000000000002</v>
+        <v>50.03</v>
       </c>
       <c r="Y29" s="80">
         <f t="shared" si="2"/>
-        <v>100.09</v>
+        <v>100.06</v>
       </c>
       <c r="Z29" s="306"/>
       <c r="AA29" s="320" t="e">
@@ -34830,11 +34818,11 @@
       </c>
       <c r="AB29" s="306"/>
       <c r="AC29" s="80">
-        <v>50.045000000000002</v>
+        <v>50.03</v>
       </c>
       <c r="AD29" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F29,AC29,Trigger)</f>
-        <v>0</v>
+        <v>50.03</v>
       </c>
       <c r="AE29" s="47"/>
     </row>
@@ -34867,7 +34855,7 @@
       </c>
       <c r="I30" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H30,IborIndex,D30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(AD30),ISERROR(FuturesHWConvAdj!U30:U31)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU9ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU9ConvAdj_Quote#0001</v>
       </c>
       <c r="J30" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -34903,7 +34891,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="80">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="X30" s="80">
         <f t="array" ref="X30">IF(ISERROR(AVERAGE(T30,U30)),#NUM!,AVERAGE(T30,U30))</f>
@@ -34956,7 +34944,7 @@
       </c>
       <c r="I31" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H31,IborIndex,D31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(AD31),ISERROR(FuturesHWConvAdj!U31:U32)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ9ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="J31" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -34992,7 +34980,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="80">
-        <v>99.990000000000009</v>
+        <v>99.97</v>
       </c>
       <c r="X31" s="80">
         <f t="array" ref="X31">IF(ISERROR(AVERAGE(T31,U31)),#NUM!,AVERAGE(T31,U31))</f>
@@ -35045,7 +35033,7 @@
       </c>
       <c r="I32" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H32,IborIndex,D32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(AD32),ISERROR(FuturesHWConvAdj!U32:U33)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH0ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH0ConvAdj_Quote#0001</v>
       </c>
       <c r="J32" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -35081,7 +35069,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="80">
-        <v>99.98</v>
+        <v>99.960000000000008</v>
       </c>
       <c r="X32" s="80">
         <f t="array" ref="X32">IF(ISERROR(AVERAGE(T32,U32)),#NUM!,AVERAGE(T32,U32))</f>
@@ -35134,7 +35122,7 @@
       </c>
       <c r="I33" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H33,IborIndex,D33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(AD33),ISERROR(FuturesHWConvAdj!U33:U34)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM0ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM0ConvAdj_Quote#0001</v>
       </c>
       <c r="J33" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -35170,7 +35158,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="80">
-        <v>99.97</v>
+        <v>99.95</v>
       </c>
       <c r="X33" s="80">
         <f t="array" ref="X33">IF(ISERROR(AVERAGE(T33,U33)),#NUM!,AVERAGE(T33,U33))</f>
@@ -35223,7 +35211,7 @@
       </c>
       <c r="I34" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H34,IborIndex,D34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(AD34),ISERROR(FuturesHWConvAdj!U34:U35)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU0ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU0ConvAdj_Quote#0001</v>
       </c>
       <c r="J34" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -35259,7 +35247,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="80">
-        <v>99.960000000000008</v>
+        <v>99.94</v>
       </c>
       <c r="X34" s="80">
         <f t="array" ref="X34">IF(ISERROR(AVERAGE(T34,U34)),#NUM!,AVERAGE(T34,U34))</f>
@@ -35312,7 +35300,7 @@
       </c>
       <c r="I35" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H35,IborIndex,D35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(AD35),ISERROR(FuturesHWConvAdj!U35:U36)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ0ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="J35" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -35348,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="80">
-        <v>99.95</v>
+        <v>99.93</v>
       </c>
       <c r="X35" s="80">
         <f t="array" ref="X35">IF(ISERROR(AVERAGE(T35,U35)),#NUM!,AVERAGE(T35,U35))</f>
@@ -35401,7 +35389,7 @@
       </c>
       <c r="I36" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H36,IborIndex,D36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(AD36),ISERROR(FuturesHWConvAdj!U36:U37)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH1ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH1ConvAdj_Quote#0001</v>
       </c>
       <c r="J36" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -35437,7 +35425,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="80">
-        <v>99.94</v>
+        <v>99.92</v>
       </c>
       <c r="X36" s="80">
         <f t="array" ref="X36">IF(ISERROR(AVERAGE(T36,U36)),#NUM!,AVERAGE(T36,U36))</f>
@@ -35490,7 +35478,7 @@
       </c>
       <c r="I37" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H37,IborIndex,D37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(AD37),ISERROR(FuturesHWConvAdj!U37:U38)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM1ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM1ConvAdj_Quote#0001</v>
       </c>
       <c r="J37" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -35579,7 +35567,7 @@
       </c>
       <c r="I38" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H38,IborIndex,D38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(AD38),ISERROR(FuturesHWConvAdj!U38:U39)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU1ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU1ConvAdj_Quote#0001</v>
       </c>
       <c r="J38" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -35668,7 +35656,7 @@
       </c>
       <c r="I39" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H39,IborIndex,D39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(AD39),ISERROR(FuturesHWConvAdj!U39:U40)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ1ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="J39" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -35757,7 +35745,7 @@
       </c>
       <c r="I40" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H40,IborIndex,D40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(AD40),ISERROR(FuturesHWConvAdj!U40:U41)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH2ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH2ConvAdj_Quote#0001</v>
       </c>
       <c r="J40" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -35846,7 +35834,7 @@
       </c>
       <c r="I41" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H41,IborIndex,D41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(AD41),ISERROR(FuturesHWConvAdj!U41:U42)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM2ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM2ConvAdj_Quote#0001</v>
       </c>
       <c r="J41" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -35935,7 +35923,7 @@
       </c>
       <c r="I42" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H42,IborIndex,D42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(AD42),ISERROR(FuturesHWConvAdj!U42:U43)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU2ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU2ConvAdj_Quote#0001</v>
       </c>
       <c r="J42" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -36024,7 +36012,7 @@
       </c>
       <c r="I43" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H43,IborIndex,D43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(AD43),ISERROR(FuturesHWConvAdj!U43:U44)),ObjectOverwrite)</f>
-        <v>CHFFUT3MZ2ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MZ2ConvAdj_Quote#0001</v>
       </c>
       <c r="J43" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -36113,7 +36101,7 @@
       </c>
       <c r="I44" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H44,IborIndex,D44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(AD44),ISERROR(FuturesHWConvAdj!U44:U45)),ObjectOverwrite)</f>
-        <v>CHFFUT3MH3ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MH3ConvAdj_Quote#0001</v>
       </c>
       <c r="J44" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -36202,7 +36190,7 @@
       </c>
       <c r="I45" s="318" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H45,IborIndex,D45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(AD45),ISERROR(FuturesHWConvAdj!U45:U46)),ObjectOverwrite)</f>
-        <v>CHFFUT3MM3ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MM3ConvAdj_Quote#0001</v>
       </c>
       <c r="J45" s="253" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -36291,7 +36279,7 @@
       </c>
       <c r="I46" s="330" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H46,IborIndex,D46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(AD46),ISERROR(FuturesHWConvAdj!U46:U47)),ObjectOverwrite)</f>
-        <v>CHFFUT3MU3ConvAdj_Quote#0069</v>
+        <v>CHFFUT3MU3ConvAdj_Quote#0001</v>
       </c>
       <c r="J46" s="255" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -36385,10 +36373,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD5:AD46">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36486,7 +36474,7 @@
       <c r="W2" s="52"/>
       <c r="X2" s="103">
         <f>_xll.ohTrigger(X5:X15)</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="161"/>
     </row>
@@ -36538,7 +36526,7 @@
       </c>
       <c r="M4" s="101" t="str">
         <f>_xll.RData(M5:M15,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 12:09:22</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="N4" s="82" t="s">
         <v>147</v>
@@ -36903,10 +36891,10 @@
         <v>CHF6X1S=ICAP</v>
       </c>
       <c r="N9" s="80">
-        <v>-0.91500000000000004</v>
+        <v>-0.92</v>
       </c>
       <c r="O9" s="80">
-        <v>-0.86499999999999999</v>
+        <v>-0.87</v>
       </c>
       <c r="P9" s="80">
         <v>0</v>
@@ -36916,7 +36904,7 @@
       </c>
       <c r="R9" s="80">
         <f t="shared" si="3"/>
-        <v>-0.89</v>
+        <v>-0.89500000000000002</v>
       </c>
       <c r="S9" s="80">
         <f t="shared" si="4"/>
@@ -36928,11 +36916,11 @@
       </c>
       <c r="V9" s="185"/>
       <c r="W9" s="80">
-        <v>-0.89</v>
+        <v>-0.89500000000000002</v>
       </c>
       <c r="X9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>4.9999999999999697E-5</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="73"/>
       <c r="AA9" s="390"/>
@@ -37122,10 +37110,10 @@
         <v>CHF9X1S=ICAP</v>
       </c>
       <c r="N12" s="80">
-        <v>-0.91</v>
+        <v>-0.90500000000000003</v>
       </c>
       <c r="O12" s="80">
-        <v>-0.86</v>
+        <v>-0.85499999999999998</v>
       </c>
       <c r="P12" s="80">
         <v>0</v>
@@ -37135,7 +37123,7 @@
       </c>
       <c r="R12" s="80">
         <f t="shared" si="3"/>
-        <v>-0.88500000000000001</v>
+        <v>-0.88</v>
       </c>
       <c r="S12" s="80">
         <f t="shared" si="4"/>
@@ -37147,11 +37135,11 @@
       </c>
       <c r="V12" s="185"/>
       <c r="W12" s="80">
-        <v>-0.88500000000000001</v>
+        <v>-0.88</v>
       </c>
       <c r="X12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="Y12" s="73"/>
       <c r="AA12" s="390"/>
@@ -37341,10 +37329,10 @@
         <v>CHF12X1S=ICAP</v>
       </c>
       <c r="N15" s="81">
-        <v>-0.91500000000000004</v>
+        <v>-0.90500000000000003</v>
       </c>
       <c r="O15" s="81">
-        <v>-0.86499999999999999</v>
+        <v>-0.85499999999999998</v>
       </c>
       <c r="P15" s="81">
         <v>0</v>
@@ -37354,7 +37342,7 @@
       </c>
       <c r="R15" s="81">
         <f t="shared" si="3"/>
-        <v>-0.89</v>
+        <v>-0.88</v>
       </c>
       <c r="S15" s="81">
         <f t="shared" si="4"/>
@@ -37366,11 +37354,11 @@
       </c>
       <c r="V15" s="185"/>
       <c r="W15" s="81">
-        <v>-0.89</v>
+        <v>-0.88</v>
       </c>
       <c r="X15" s="179">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="Y15" s="73"/>
       <c r="AA15" s="390"/>
@@ -37404,10 +37392,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X5:X15">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37514,7 +37502,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="103">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="161"/>
     </row>
@@ -37570,7 +37558,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:13:23</v>
+        <v>Paused at 12:03:03</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -37730,10 +37718,10 @@
         <v>CHFAM1L1Y=ICAP</v>
       </c>
       <c r="P6" s="80">
-        <v>-0.91500000000000004</v>
+        <v>-0.90800000000000003</v>
       </c>
       <c r="Q6" s="80">
-        <v>-0.86499999999999999</v>
+        <v>-0.85799999999999998</v>
       </c>
       <c r="R6" s="80">
         <v>0</v>
@@ -37743,7 +37731,7 @@
       </c>
       <c r="T6" s="80">
         <f t="shared" ref="T6:T42" si="3">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>-0.89</v>
+        <v>-0.88300000000000001</v>
       </c>
       <c r="U6" s="80">
         <f t="shared" ref="U6:U42" si="4">Q6-P6</f>
@@ -37755,11 +37743,11 @@
       </c>
       <c r="X6" s="185"/>
       <c r="Y6" s="80">
-        <v>-0.89</v>
+        <v>-0.88300000000000001</v>
       </c>
       <c r="Z6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>2.000000000000092E-5</v>
       </c>
       <c r="AA6" s="73"/>
       <c r="AC6" s="390"/>
@@ -38050,10 +38038,10 @@
         <v>CHFAM1L2Y=ICAP</v>
       </c>
       <c r="P10" s="80">
-        <v>-0.84799999999999998</v>
+        <v>-0.83000000000000007</v>
       </c>
       <c r="Q10" s="80">
-        <v>-0.76800000000000002</v>
+        <v>-0.75</v>
       </c>
       <c r="R10" s="80">
         <v>0</v>
@@ -38063,11 +38051,11 @@
       </c>
       <c r="T10" s="80">
         <f t="shared" si="3"/>
-        <v>-0.80800000000000005</v>
+        <v>-0.79</v>
       </c>
       <c r="U10" s="80">
         <f t="shared" si="4"/>
-        <v>7.999999999999996E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V10" s="185"/>
       <c r="W10" s="187">
@@ -38075,11 +38063,11 @@
       </c>
       <c r="X10" s="185"/>
       <c r="Y10" s="80">
-        <v>-0.80800000000000005</v>
+        <v>-0.79</v>
       </c>
       <c r="Z10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>8.000000000000021E-5</v>
       </c>
       <c r="AA10" s="73"/>
       <c r="AC10" s="390"/>
@@ -38130,10 +38118,10 @@
         <v>CHFAM1L3Y=ICAP</v>
       </c>
       <c r="P11" s="80">
-        <v>-0.72</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="Q11" s="80">
-        <v>-0.64</v>
+        <v>-0.625</v>
       </c>
       <c r="R11" s="80">
         <v>0</v>
@@ -38143,7 +38131,7 @@
       </c>
       <c r="T11" s="80">
         <f t="shared" si="3"/>
-        <v>-0.67999999999999994</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="U11" s="80">
         <f t="shared" si="4"/>
@@ -38155,11 +38143,11 @@
       </c>
       <c r="X11" s="185"/>
       <c r="Y11" s="80">
-        <v>-0.67999999999999994</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="Z11" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>3.0000000000000512E-5</v>
+        <v>8.000000000000021E-5</v>
       </c>
       <c r="AA11" s="73"/>
       <c r="AC11" s="390"/>
@@ -38210,10 +38198,10 @@
         <v>CHFAM1L4Y=ICAP</v>
       </c>
       <c r="P12" s="80">
-        <v>-0.57799999999999996</v>
+        <v>-0.55500000000000005</v>
       </c>
       <c r="Q12" s="80">
-        <v>-0.498</v>
+        <v>-0.47500000000000003</v>
       </c>
       <c r="R12" s="80">
         <v>0</v>
@@ -38223,11 +38211,11 @@
       </c>
       <c r="T12" s="80">
         <f t="shared" si="3"/>
-        <v>-0.53800000000000003</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="U12" s="80">
         <f t="shared" si="4"/>
-        <v>7.999999999999996E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V12" s="185"/>
       <c r="W12" s="187">
@@ -38235,11 +38223,11 @@
       </c>
       <c r="X12" s="185"/>
       <c r="Y12" s="80">
-        <v>-0.53800000000000003</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="Z12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>2.0000000000000052E-5</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA12" s="73"/>
       <c r="AC12" s="390"/>
@@ -38290,10 +38278,10 @@
         <v>CHFAM1L5Y=ICAP</v>
       </c>
       <c r="P13" s="80">
-        <v>-0.43</v>
+        <v>-0.40300000000000002</v>
       </c>
       <c r="Q13" s="80">
-        <v>-0.35000000000000003</v>
+        <v>-0.32300000000000001</v>
       </c>
       <c r="R13" s="80">
         <v>0</v>
@@ -38303,11 +38291,11 @@
       </c>
       <c r="T13" s="80">
         <f t="shared" si="3"/>
-        <v>-0.39</v>
+        <v>-0.36299999999999999</v>
       </c>
       <c r="U13" s="80">
         <f t="shared" si="4"/>
-        <v>7.999999999999996E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V13" s="185"/>
       <c r="W13" s="187">
@@ -38315,11 +38303,11 @@
       </c>
       <c r="X13" s="185"/>
       <c r="Y13" s="80">
-        <v>-0.39</v>
+        <v>-0.36299999999999999</v>
       </c>
       <c r="Z13" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>3.0000000000000079E-5</v>
+        <v>1.1999999999999988E-4</v>
       </c>
       <c r="AA13" s="73"/>
       <c r="AC13" s="390"/>
@@ -38370,10 +38358,10 @@
         <v>CHFAM1L6Y=ICAP</v>
       </c>
       <c r="P14" s="80">
-        <v>-0.29299999999999998</v>
+        <v>-0.25800000000000001</v>
       </c>
       <c r="Q14" s="80">
-        <v>-0.21299999999999999</v>
+        <v>-0.17799999999999999</v>
       </c>
       <c r="R14" s="80">
         <v>0</v>
@@ -38383,11 +38371,11 @@
       </c>
       <c r="T14" s="80">
         <f t="shared" si="3"/>
-        <v>-0.253</v>
+        <v>-0.218</v>
       </c>
       <c r="U14" s="80">
         <f t="shared" si="4"/>
-        <v>7.9999999999999988E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V14" s="185"/>
       <c r="W14" s="187">
@@ -38395,11 +38383,11 @@
       </c>
       <c r="X14" s="185"/>
       <c r="Y14" s="80">
-        <v>-0.253</v>
+        <v>-0.218</v>
       </c>
       <c r="Z14" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>2.0000000000000052E-5</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AA14" s="73"/>
       <c r="AC14" s="390"/>
@@ -38450,10 +38438,10 @@
         <v>CHFAM1L7Y=ICAP</v>
       </c>
       <c r="P15" s="80">
-        <v>-0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="Q15" s="80">
-        <v>-0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="R15" s="80">
         <v>0</v>
@@ -38463,11 +38451,11 @@
       </c>
       <c r="T15" s="80">
         <f t="shared" si="3"/>
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="U15" s="80">
         <f t="shared" si="4"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V15" s="185"/>
       <c r="W15" s="187">
@@ -38475,11 +38463,11 @@
       </c>
       <c r="X15" s="185"/>
       <c r="Y15" s="80">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="Z15" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>3.0000000000000079E-5</v>
+        <v>1.8000000000000004E-4</v>
       </c>
       <c r="AA15" s="73"/>
       <c r="AC15" s="390"/>
@@ -38530,10 +38518,10 @@
         <v>CHFAM1L8Y=ICAP</v>
       </c>
       <c r="P16" s="80">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="Q16" s="80">
-        <v>1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R16" s="80">
         <v>0</v>
@@ -38543,7 +38531,7 @@
       </c>
       <c r="T16" s="80">
         <f t="shared" si="3"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="U16" s="80">
         <f t="shared" si="4"/>
@@ -38555,11 +38543,11 @@
       </c>
       <c r="X16" s="185"/>
       <c r="Y16" s="80">
-        <v>-2.5000000000000001E-2</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="Z16" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>1.9999999999999998E-4</v>
       </c>
       <c r="AA16" s="73"/>
       <c r="AC16" s="390"/>
@@ -38610,10 +38598,10 @@
         <v>CHFAM1L9Y=ICAP</v>
       </c>
       <c r="P17" s="80">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q17" s="80">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="R17" s="80">
         <v>0</v>
@@ -38623,11 +38611,11 @@
       </c>
       <c r="T17" s="80">
         <f t="shared" si="3"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.11</v>
       </c>
       <c r="U17" s="80">
         <f t="shared" si="4"/>
-        <v>0.08</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="V17" s="185"/>
       <c r="W17" s="187">
@@ -38635,11 +38623,11 @@
       </c>
       <c r="X17" s="185"/>
       <c r="Y17" s="80">
-        <v>6.0000000000000005E-2</v>
+        <v>0.11</v>
       </c>
       <c r="Z17" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>2.0000000000000052E-5</v>
+        <v>2.2000000000000014E-4</v>
       </c>
       <c r="AA17" s="73"/>
       <c r="AC17" s="390"/>
@@ -38690,10 +38678,10 @@
         <v>CHFAM1L10Y=ICAP</v>
       </c>
       <c r="P18" s="80">
-        <v>9.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="Q18" s="80">
-        <v>0.17500000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="R18" s="80">
         <v>0</v>
@@ -38703,7 +38691,7 @@
       </c>
       <c r="T18" s="80">
         <f t="shared" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="U18" s="80">
         <f t="shared" si="4"/>
@@ -38715,11 +38703,11 @@
       </c>
       <c r="X18" s="185"/>
       <c r="Y18" s="80">
-        <v>0.13500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="Z18" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>2.0000000000000052E-5</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="AA18" s="73"/>
       <c r="AC18" s="390"/>
@@ -38850,10 +38838,10 @@
         <v>CHFAM1L12Y=ICAP</v>
       </c>
       <c r="P20" s="80">
-        <v>0.20300000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="Q20" s="80">
-        <v>0.30299999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="R20" s="80">
         <v>0</v>
@@ -38863,7 +38851,7 @@
       </c>
       <c r="T20" s="80">
         <f t="shared" si="3"/>
-        <v>0.253</v>
+        <v>0.31</v>
       </c>
       <c r="U20" s="80">
         <f t="shared" si="4"/>
@@ -38875,11 +38863,11 @@
       </c>
       <c r="X20" s="185"/>
       <c r="Y20" s="80">
-        <v>0.253</v>
+        <v>0.31</v>
       </c>
       <c r="Z20" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>3.0000000000000079E-5</v>
+        <v>2.4999999999999979E-4</v>
       </c>
       <c r="AA20" s="73"/>
       <c r="AC20" s="390"/>
@@ -39090,10 +39078,10 @@
         <v>CHFAM1L15Y=ICAP</v>
       </c>
       <c r="P23" s="80">
-        <v>0.33500000000000002</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="Q23" s="80">
-        <v>0.435</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="R23" s="80">
         <v>0</v>
@@ -39103,7 +39091,7 @@
       </c>
       <c r="T23" s="80">
         <f t="shared" si="3"/>
-        <v>0.38500000000000001</v>
+        <v>0.443</v>
       </c>
       <c r="U23" s="80">
         <f t="shared" si="4"/>
@@ -39115,11 +39103,11 @@
       </c>
       <c r="X23" s="185"/>
       <c r="Y23" s="80">
-        <v>0.38500000000000001</v>
+        <v>0.443</v>
       </c>
       <c r="Z23" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>2.0000000000000052E-5</v>
+        <v>2.4999999999999935E-4</v>
       </c>
       <c r="AA23" s="73"/>
       <c r="AC23" s="390"/>
@@ -39490,10 +39478,10 @@
         <v>CHFAM1L20Y=ICAP</v>
       </c>
       <c r="P28" s="80">
-        <v>0.47000000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="Q28" s="80">
-        <v>0.57000000000000006</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="R28" s="80">
         <v>0</v>
@@ -39503,11 +39491,11 @@
       </c>
       <c r="T28" s="80">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="U28" s="80">
         <f t="shared" si="4"/>
-        <v>0.10000000000000003</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="V28" s="185"/>
       <c r="W28" s="187">
@@ -39515,11 +39503,11 @@
       </c>
       <c r="X28" s="185"/>
       <c r="Y28" s="80">
-        <v>0.52</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="Z28" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>1.9999999999999185E-5</v>
+        <v>2.7999999999999987E-4</v>
       </c>
       <c r="AA28" s="73"/>
       <c r="AC28" s="390"/>
@@ -39890,10 +39878,10 @@
         <v>CHFAM1L25Y=ICAP</v>
       </c>
       <c r="P33" s="80">
-        <v>0.55300000000000005</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="Q33" s="80">
-        <v>0.65300000000000002</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="R33" s="80">
         <v>0</v>
@@ -39903,7 +39891,7 @@
       </c>
       <c r="T33" s="80">
         <f t="shared" si="3"/>
-        <v>0.60299999999999998</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="U33" s="80">
         <f t="shared" si="4"/>
@@ -39915,11 +39903,11 @@
       </c>
       <c r="X33" s="185"/>
       <c r="Y33" s="80">
-        <v>0.60299999999999998</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="Z33" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>2.9999999999998778E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA33" s="73"/>
       <c r="AC33" s="390"/>
@@ -40290,10 +40278,10 @@
         <v>CHFAM1L30Y=ICAP</v>
       </c>
       <c r="P38" s="80">
-        <v>0.59299999999999997</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="Q38" s="80">
-        <v>0.69300000000000006</v>
+        <v>0.755</v>
       </c>
       <c r="R38" s="80">
         <v>0</v>
@@ -40303,11 +40291,11 @@
       </c>
       <c r="T38" s="80">
         <f t="shared" si="3"/>
-        <v>0.64300000000000002</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="U38" s="80">
         <f t="shared" si="4"/>
-        <v>0.10000000000000009</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="V38" s="185"/>
       <c r="W38" s="187">
@@ -40315,11 +40303,11 @@
       </c>
       <c r="X38" s="185"/>
       <c r="Y38" s="80">
-        <v>0.64300000000000002</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="Z38" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>2.9999999999999645E-5</v>
+        <v>2.5000000000000109E-4</v>
       </c>
       <c r="AA38" s="73"/>
       <c r="AC38" s="390"/>
@@ -40675,10 +40663,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z42">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40786,7 +40774,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="103">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="161"/>
     </row>
@@ -40842,7 +40830,7 @@
       </c>
       <c r="O4" s="101" t="str">
         <f>_xll.RData(O5:O42,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:13:22</v>
+        <v>Paused at 12:03:02</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>147</v>
@@ -41002,10 +40990,10 @@
         <v>CHFAB3L1Y=ICAP</v>
       </c>
       <c r="P6" s="80">
-        <v>-0.84799999999999998</v>
+        <v>-0.83799999999999997</v>
       </c>
       <c r="Q6" s="80">
-        <v>-0.80800000000000005</v>
+        <v>-0.79800000000000004</v>
       </c>
       <c r="R6" s="80">
         <v>0</v>
@@ -41015,7 +41003,7 @@
       </c>
       <c r="T6" s="80">
         <f t="shared" ref="T6:T42" si="5">IF(ISERROR(AVERAGE(P6,Q6)),#NUM!,AVERAGE(P6,Q6))</f>
-        <v>-0.82800000000000007</v>
+        <v>-0.81800000000000006</v>
       </c>
       <c r="U6" s="80">
         <f t="shared" ref="U6:U42" si="6">Q6-P6</f>
@@ -41027,11 +41015,11 @@
       </c>
       <c r="X6" s="185"/>
       <c r="Y6" s="80">
-        <v>-0.82800000000000007</v>
+        <v>-0.81800000000000006</v>
       </c>
       <c r="Z6" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000113E-4</v>
       </c>
       <c r="AA6" s="73"/>
       <c r="AC6" s="390"/>
@@ -41082,10 +41070,10 @@
         <v>CHFAB3L15M=ICAP</v>
       </c>
       <c r="P7" s="80">
-        <v>-0.83499999999999996</v>
+        <v>-0.82500000000000007</v>
       </c>
       <c r="Q7" s="80">
-        <v>-0.79500000000000004</v>
+        <v>-0.78500000000000003</v>
       </c>
       <c r="R7" s="80">
         <v>0</v>
@@ -41095,11 +41083,11 @@
       </c>
       <c r="T7" s="80">
         <f t="shared" si="5"/>
-        <v>-0.81499999999999995</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="U7" s="80">
         <f t="shared" si="6"/>
-        <v>3.9999999999999925E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V7" s="185"/>
       <c r="W7" s="187">
@@ -41107,11 +41095,11 @@
       </c>
       <c r="X7" s="185"/>
       <c r="Y7" s="80">
-        <v>-0.81499999999999995</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="Z7" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7/100,Trigger)</f>
-        <v>0</v>
+        <v>8.000000000000021E-5</v>
       </c>
       <c r="AA7" s="73"/>
       <c r="AC7" s="390"/>
@@ -41162,10 +41150,10 @@
         <v>CHFAB3L18M=ICAP</v>
       </c>
       <c r="P8" s="80">
-        <v>-0.81800000000000006</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="Q8" s="80">
-        <v>-0.77800000000000002</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="R8" s="80">
         <v>0</v>
@@ -41175,7 +41163,7 @@
       </c>
       <c r="T8" s="80">
         <f t="shared" si="5"/>
-        <v>-0.79800000000000004</v>
+        <v>-0.78500000000000003</v>
       </c>
       <c r="U8" s="80">
         <f t="shared" si="6"/>
@@ -41187,11 +41175,11 @@
       </c>
       <c r="X8" s="185"/>
       <c r="Y8" s="80">
-        <v>-0.79800000000000004</v>
+        <v>-0.78500000000000003</v>
       </c>
       <c r="Z8" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA8" s="73"/>
       <c r="AC8" s="390"/>
@@ -41242,10 +41230,10 @@
         <v>CHFAB3L21M=ICAP</v>
       </c>
       <c r="P9" s="80">
-        <v>-0.79800000000000004</v>
+        <v>-0.78</v>
       </c>
       <c r="Q9" s="80">
-        <v>-0.75800000000000001</v>
+        <v>-0.74</v>
       </c>
       <c r="R9" s="80">
         <v>0</v>
@@ -41255,7 +41243,7 @@
       </c>
       <c r="T9" s="80">
         <f t="shared" si="5"/>
-        <v>-0.77800000000000002</v>
+        <v>-0.76</v>
       </c>
       <c r="U9" s="80">
         <f t="shared" si="6"/>
@@ -41267,11 +41255,11 @@
       </c>
       <c r="X9" s="185"/>
       <c r="Y9" s="80">
-        <v>-0.77800000000000002</v>
+        <v>-0.76</v>
       </c>
       <c r="Z9" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9/100,Trigger)</f>
-        <v>0</v>
+        <v>1.2999999999999991E-4</v>
       </c>
       <c r="AA9" s="73"/>
       <c r="AC9" s="390"/>
@@ -41322,10 +41310,10 @@
         <v>CHFAB3L2Y=ICAP</v>
       </c>
       <c r="P10" s="80">
-        <v>-0.79250000000000009</v>
+        <v>-0.77250000000000008</v>
       </c>
       <c r="Q10" s="80">
-        <v>-0.71250000000000002</v>
+        <v>-0.6925</v>
       </c>
       <c r="R10" s="80">
         <v>0</v>
@@ -41335,7 +41323,7 @@
       </c>
       <c r="T10" s="80">
         <f t="shared" si="5"/>
-        <v>-0.75250000000000006</v>
+        <v>-0.73250000000000004</v>
       </c>
       <c r="U10" s="80">
         <f t="shared" si="6"/>
@@ -41347,11 +41335,11 @@
       </c>
       <c r="X10" s="185"/>
       <c r="Y10" s="80">
-        <v>-0.75250000000000006</v>
+        <v>-0.73250000000000004</v>
       </c>
       <c r="Z10" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="AA10" s="73"/>
       <c r="AC10" s="390"/>
@@ -41402,10 +41390,10 @@
         <v>CHFAB3L3Y=ICAP</v>
       </c>
       <c r="P11" s="80">
-        <v>-0.67</v>
+        <v>-0.65250000000000008</v>
       </c>
       <c r="Q11" s="80">
-        <v>-0.59000000000000008</v>
+        <v>-0.57250000000000001</v>
       </c>
       <c r="R11" s="80">
         <v>0</v>
@@ -41415,11 +41403,11 @@
       </c>
       <c r="T11" s="80">
         <f t="shared" si="5"/>
-        <v>-0.63000000000000012</v>
+        <v>-0.61250000000000004</v>
       </c>
       <c r="U11" s="80">
         <f t="shared" si="6"/>
-        <v>7.999999999999996E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="V11" s="185"/>
       <c r="W11" s="187">
@@ -41427,11 +41415,11 @@
       </c>
       <c r="X11" s="185"/>
       <c r="Y11" s="80">
-        <v>-0.63000000000000012</v>
+        <v>-0.61250000000000004</v>
       </c>
       <c r="Z11" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="AA11" s="73"/>
       <c r="AC11" s="390"/>
@@ -41482,10 +41470,10 @@
         <v>CHFAB3L4Y=ICAP</v>
       </c>
       <c r="P12" s="80">
-        <v>-0.53</v>
+        <v>-0.505</v>
       </c>
       <c r="Q12" s="80">
-        <v>-0.45</v>
+        <v>-0.42500000000000004</v>
       </c>
       <c r="R12" s="80">
         <v>0</v>
@@ -41495,11 +41483,11 @@
       </c>
       <c r="T12" s="80">
         <f t="shared" si="5"/>
-        <v>-0.49</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="U12" s="80">
         <f t="shared" si="6"/>
-        <v>8.0000000000000016E-2</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="V12" s="185"/>
       <c r="W12" s="187">
@@ -41507,11 +41495,11 @@
       </c>
       <c r="X12" s="185"/>
       <c r="Y12" s="80">
-        <v>-0.49</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="Z12" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>1.2500000000000011E-4</v>
       </c>
       <c r="AA12" s="73"/>
       <c r="AC12" s="390"/>
@@ -41562,10 +41550,10 @@
         <v>CHFAB3L5Y=ICAP</v>
       </c>
       <c r="P13" s="80">
-        <v>-0.38500000000000001</v>
+        <v>-0.35500000000000004</v>
       </c>
       <c r="Q13" s="80">
-        <v>-0.30499999999999999</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="R13" s="80">
         <v>0</v>
@@ -41575,7 +41563,7 @@
       </c>
       <c r="T13" s="80">
         <f t="shared" si="5"/>
-        <v>-0.34499999999999997</v>
+        <v>-0.31500000000000006</v>
       </c>
       <c r="U13" s="80">
         <f t="shared" si="6"/>
@@ -41587,11 +41575,11 @@
       </c>
       <c r="X13" s="185"/>
       <c r="Y13" s="80">
-        <v>-0.34499999999999997</v>
+        <v>-0.31500000000000006</v>
       </c>
       <c r="Z13" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>2.5000000000000282E-5</v>
+        <v>1.4999999999999953E-4</v>
       </c>
       <c r="AA13" s="73"/>
       <c r="AC13" s="390"/>
@@ -41642,10 +41630,10 @@
         <v>CHFAB3L6Y=ICAP</v>
       </c>
       <c r="P14" s="80">
-        <v>-0.25</v>
+        <v>-0.21250000000000002</v>
       </c>
       <c r="Q14" s="80">
-        <v>-0.17</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="R14" s="80">
         <v>0</v>
@@ -41655,11 +41643,11 @@
       </c>
       <c r="T14" s="80">
         <f t="shared" si="5"/>
-        <v>-0.21000000000000002</v>
+        <v>-0.17250000000000001</v>
       </c>
       <c r="U14" s="80">
         <f t="shared" si="6"/>
-        <v>7.9999999999999988E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="V14" s="185"/>
       <c r="W14" s="187">
@@ -41667,11 +41655,11 @@
       </c>
       <c r="X14" s="185"/>
       <c r="Y14" s="80">
-        <v>-0.21000000000000002</v>
+        <v>-0.17250000000000001</v>
       </c>
       <c r="Z14" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>1.7499999999999981E-4</v>
       </c>
       <c r="AA14" s="73"/>
       <c r="AC14" s="390"/>
@@ -41722,10 +41710,10 @@
         <v>CHFAB3L7Y=ICAP</v>
       </c>
       <c r="P15" s="80">
-        <v>-0.13</v>
+        <v>-8.7500000000000008E-2</v>
       </c>
       <c r="Q15" s="80">
-        <v>-0.05</v>
+        <v>-7.5000000000000006E-3</v>
       </c>
       <c r="R15" s="80">
         <v>0</v>
@@ -41735,7 +41723,7 @@
       </c>
       <c r="T15" s="80">
         <f t="shared" si="5"/>
-        <v>-0.09</v>
+        <v>-4.7500000000000007E-2</v>
       </c>
       <c r="U15" s="80">
         <f t="shared" si="6"/>
@@ -41747,11 +41735,11 @@
       </c>
       <c r="X15" s="185"/>
       <c r="Y15" s="80">
-        <v>-0.09</v>
+        <v>-4.7500000000000007E-2</v>
       </c>
       <c r="Z15" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>2.5000000000000066E-5</v>
+        <v>1.9999999999999998E-4</v>
       </c>
       <c r="AA15" s="73"/>
       <c r="AC15" s="390"/>
@@ -41802,10 +41790,10 @@
         <v>CHFAB3L8Y=ICAP</v>
       </c>
       <c r="P16" s="80">
-        <v>-2.5000000000000001E-2</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="Q16" s="80">
-        <v>5.5E-2</v>
+        <v>0.10250000000000001</v>
       </c>
       <c r="R16" s="80">
         <v>0</v>
@@ -41815,7 +41803,7 @@
       </c>
       <c r="T16" s="80">
         <f t="shared" si="5"/>
-        <v>1.4999999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U16" s="80">
         <f t="shared" si="6"/>
@@ -41827,11 +41815,11 @@
       </c>
       <c r="X16" s="185"/>
       <c r="Y16" s="80">
-        <v>1.4999999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z16" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>2.2499999999999999E-4</v>
       </c>
       <c r="AA16" s="73"/>
       <c r="AC16" s="390"/>
@@ -41882,10 +41870,10 @@
         <v>CHFAB3L9Y=ICAP</v>
       </c>
       <c r="P17" s="80">
-        <v>6.0000000000000005E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="Q17" s="80">
-        <v>0.14000000000000001</v>
+        <v>0.1925</v>
       </c>
       <c r="R17" s="80">
         <v>0</v>
@@ -41895,11 +41883,11 @@
       </c>
       <c r="T17" s="80">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.1525</v>
       </c>
       <c r="U17" s="80">
         <f t="shared" si="6"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V17" s="185"/>
       <c r="W17" s="187">
@@ -41907,11 +41895,11 @@
       </c>
       <c r="X17" s="185"/>
       <c r="Y17" s="80">
-        <v>0.1</v>
+        <v>0.1525</v>
       </c>
       <c r="Z17" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>2.4999999999999979E-4</v>
       </c>
       <c r="AA17" s="73"/>
       <c r="AC17" s="390"/>
@@ -41962,10 +41950,10 @@
         <v>CHFAB3L10Y=ICAP</v>
       </c>
       <c r="P18" s="80">
-        <v>0.13</v>
+        <v>0.185</v>
       </c>
       <c r="Q18" s="80">
-        <v>0.21000000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="R18" s="80">
         <v>0</v>
@@ -41975,7 +41963,7 @@
       </c>
       <c r="T18" s="80">
         <f t="shared" si="5"/>
-        <v>0.17</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="U18" s="80">
         <f t="shared" si="6"/>
@@ -41987,11 +41975,11 @@
       </c>
       <c r="X18" s="185"/>
       <c r="Y18" s="80">
-        <v>0.17</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="Z18" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>2.5000000000000066E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA18" s="73"/>
       <c r="AC18" s="390"/>
@@ -42042,10 +42030,10 @@
         <v>CHFAB3L11Y=ICAP</v>
       </c>
       <c r="P19" s="80">
-        <v>0.18000000000000002</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="Q19" s="80">
-        <v>0.28000000000000003</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="R19" s="80">
         <v>0</v>
@@ -42055,7 +42043,7 @@
       </c>
       <c r="T19" s="80">
         <f t="shared" si="5"/>
-        <v>0.23000000000000004</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="U19" s="80">
         <f t="shared" si="6"/>
@@ -42067,11 +42055,11 @@
       </c>
       <c r="X19" s="185"/>
       <c r="Y19" s="80">
-        <v>0.23000000000000004</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="Z19" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>2.750000000000005E-4</v>
       </c>
       <c r="AA19" s="73"/>
       <c r="AC19" s="390"/>
@@ -42122,10 +42110,10 @@
         <v>CHFAB3L12Y=ICAP</v>
       </c>
       <c r="P20" s="80">
-        <v>0.23250000000000001</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="Q20" s="80">
-        <v>0.33250000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="R20" s="80">
         <v>0</v>
@@ -42135,11 +42123,11 @@
       </c>
       <c r="T20" s="80">
         <f t="shared" si="5"/>
-        <v>0.28250000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="U20" s="80">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="V20" s="185"/>
       <c r="W20" s="187">
@@ -42147,11 +42135,11 @@
       </c>
       <c r="X20" s="185"/>
       <c r="Y20" s="80">
-        <v>0.28250000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="Z20" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA20" s="73"/>
       <c r="AC20" s="390"/>
@@ -42362,10 +42350,10 @@
         <v>CHFAB3L15Y=ICAP</v>
       </c>
       <c r="P23" s="80">
-        <v>0.36499999999999999</v>
+        <v>0.42250000000000004</v>
       </c>
       <c r="Q23" s="80">
-        <v>0.46500000000000002</v>
+        <v>0.52250000000000008</v>
       </c>
       <c r="R23" s="80">
         <v>0</v>
@@ -42375,7 +42363,7 @@
       </c>
       <c r="T23" s="80">
         <f t="shared" si="5"/>
-        <v>0.41500000000000004</v>
+        <v>0.47250000000000003</v>
       </c>
       <c r="U23" s="80">
         <f t="shared" si="6"/>
@@ -42387,11 +42375,11 @@
       </c>
       <c r="X23" s="185"/>
       <c r="Y23" s="80">
-        <v>0.41500000000000004</v>
+        <v>0.47250000000000003</v>
       </c>
       <c r="Z23" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA23" s="73"/>
       <c r="AC23" s="390"/>
@@ -42762,10 +42750,10 @@
         <v>CHFAB3L20Y=ICAP</v>
       </c>
       <c r="P28" s="80">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="Q28" s="80">
-        <v>0.6</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="R28" s="80">
         <v>0</v>
@@ -42775,7 +42763,7 @@
       </c>
       <c r="T28" s="80">
         <f t="shared" si="5"/>
-        <v>0.55000000000000004</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="U28" s="80">
         <f t="shared" si="6"/>
@@ -42787,11 +42775,11 @@
       </c>
       <c r="X28" s="185"/>
       <c r="Y28" s="80">
-        <v>0.55000000000000004</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="Z28" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>2.7500000000000094E-4</v>
       </c>
       <c r="AA28" s="73"/>
       <c r="AC28" s="390"/>
@@ -43162,10 +43150,10 @@
         <v>CHFAB3L25Y=ICAP</v>
       </c>
       <c r="P33" s="80">
-        <v>0.58000000000000007</v>
+        <v>0.64</v>
       </c>
       <c r="Q33" s="80">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="R33" s="80">
         <v>0</v>
@@ -43175,7 +43163,7 @@
       </c>
       <c r="T33" s="80">
         <f t="shared" si="5"/>
-        <v>0.63000000000000012</v>
+        <v>0.69</v>
       </c>
       <c r="U33" s="80">
         <f t="shared" si="6"/>
@@ -43187,11 +43175,11 @@
       </c>
       <c r="X33" s="185"/>
       <c r="Y33" s="80">
-        <v>0.63000000000000012</v>
+        <v>0.69</v>
       </c>
       <c r="Z33" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>2.5000000000001583E-5</v>
+        <v>2.4999999999999935E-4</v>
       </c>
       <c r="AA33" s="73"/>
       <c r="AC33" s="390"/>
@@ -43562,10 +43550,10 @@
         <v>CHFAB3L30Y=ICAP</v>
       </c>
       <c r="P38" s="80">
-        <v>0.62</v>
+        <v>0.6825</v>
       </c>
       <c r="Q38" s="80">
-        <v>0.72000000000000008</v>
+        <v>0.78250000000000008</v>
       </c>
       <c r="R38" s="80">
         <v>0</v>
@@ -43575,7 +43563,7 @@
       </c>
       <c r="T38" s="80">
         <f t="shared" si="5"/>
-        <v>0.67</v>
+        <v>0.73250000000000004</v>
       </c>
       <c r="U38" s="80">
         <f t="shared" si="6"/>
@@ -43587,11 +43575,11 @@
       </c>
       <c r="X38" s="185"/>
       <c r="Y38" s="80">
-        <v>0.67</v>
+        <v>0.73250000000000004</v>
       </c>
       <c r="Z38" s="178">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AA38" s="73"/>
       <c r="AC38" s="390"/>
@@ -43947,10 +43935,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z42">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
